--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Parameter data type.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Parameter data type.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
   <si>
     <t/>
   </si>
@@ -26,34 +26,228 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Categorical variable</t>
+    <t>Represented_As</t>
   </si>
   <si>
-    <t>Parameter data type_1</t>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Data_Type_7</t>
+  </si>
+  <si>
+    <t>Strings of "true" Or "false" are accepted</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Data_Type_5</t>
+  </si>
+  <si>
+    <t>according to format definition in ISO 8601 xsd:dateTime (e.g. 2018-01-26T23:32:52+02:00 or 2018-01-26)</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Data_Type_3</t>
+  </si>
+  <si>
+    <t>Floating-point numbers with double precision.</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Data_Type_15</t>
+  </si>
+  <si>
+    <t>The event defined as a SBML event. e.g.:
+for a event like this
+[G2] = ( 0 when [P1] ≤ τ, 1 when [P1] &gt; τ)
+The SBML  representation of the part ( 0 when [P1] ≤ τ ) is as follow:
+&lt;event useValuesFromTriggerTime="true"&gt;
+        &lt;trigger persistent="false" initialValue="true"&gt;
+                 &lt;math:math&gt;
+                         &lt;math:apply&gt;
+                                 &lt;math:leq/&gt;
+                                 &lt;math:ci&gt; P1 &lt;/math:ci&gt;
+                                 &lt;math:ci&gt; tau &lt;/math:ci&gt;
+                         &lt;/math:apply&gt;
+                 &lt;/math:math&gt;
+         &lt;/trigger&gt;
+         &lt;listOfEventAssignments&gt;
+                 &lt;eventAssignment variable="G2"&gt;
+                         &lt;math:math&gt;
+                                &lt;math:cn sbml:units="concentration"&gt; 0 &lt;/math:cn&gt;
+                         &lt;/math:math&gt;
+                 &lt;/eventAssignment&gt;
+         &lt;/listOfEventAssignments&gt;
+ &lt;/event&gt;
+For more information please refer to  (7.11 Example involving events) 
+in http://sbml.org/Special/specifications/sbml-level-3/version-2/core/release-1/sbml-level-3-version-2-core.pdf</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Data_Type_6</t>
+  </si>
+  <si>
+    <t>Represents only the file name. The file should be placed in the folder containing the metedata file of the model.</t>
+  </si>
+  <si>
+    <t>Fitting procedure</t>
+  </si>
+  <si>
+    <t>Data_Type_17</t>
+  </si>
+  <si>
+    <t>"Maximum likelihood estimation (MLE)", "Other"</t>
   </si>
   <si>
     <t>Integer</t>
   </si>
   <si>
-    <t>Parameter data type_2</t>
+    <t>Data_Type_1</t>
   </si>
   <si>
-    <t>Double</t>
+    <t>any integer value in the range –4,000 trillion to +4,000 trillion</t>
   </si>
   <si>
-    <t>Parameter data type_3</t>
+    <t>Matrix[number,number]</t>
   </si>
   <si>
-    <t xml:space="preserve">Array of size x,y,z </t>
+    <t>Data_Type_11</t>
   </si>
   <si>
-    <t>Parameter data type_4</t>
+    <t>Two dimensional array of numbers.
+Elements are of type Vector[number] separated by comma and enclosed inside square [ ] brackets 
+All elements must have the same length.
+null represents empty value. e.g. [[1,10,5], [1,2.6,3.5], [1,2,3], [110,250,750.66]]</t>
   </si>
   <si>
-    <t>Other</t>
+    <t>Matrix[string,string]</t>
   </si>
   <si>
-    <t>Parameter data type_5</t>
+    <t>Data_Type_12</t>
+  </si>
+  <si>
+    <t>Two dimensional array of strings.
+Elements are of type Vector[string] separated by comma and enclosed inside square [ ] bracket.
+All elements must have the same length.
+null represents empty value.  e.g.  [['Air','vibration','c'],['A', 'B', 'C'],[ 'Aaba',null, 'Baca'],['cc','b','here']]</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Data_Type_2</t>
+  </si>
+  <si>
+    <t>any number type ( Integer or Double)</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Data_Type_8</t>
+  </si>
+  <si>
+    <t>Valid JSON Object
+JSON objects are surrounded by curly braces {}.written in key/value pairs.Keys must be strings, and values must be a valid data type 
+Keys and values are separated by a colon. Each key/value pair is separated by a comma.
+{ "name":"John", "age":30, "car":null }</t>
+  </si>
+  <si>
+    <t>Quality measures</t>
+  </si>
+  <si>
+    <t>Data_Type_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The quality measures can be defined as an object (JSON) with keys 'SSE', 'MSE', 'RMSE', 'Rsquared', 'AIC', 'BIC' and 'sensitivy_analysis'.
+The 'sensitivity analysis' property is of type Other while the rest of properties are Double.
+Example: {'SSE': 0, 'MSE': 0, 'RMSE': 0, 'AIC': 0, 'BIC': 0, 'sensitivity_analysis': 'text' }                  </t>
+  </si>
+  <si>
+    <t>RIS</t>
+  </si>
+  <si>
+    <t>Data_Type_14</t>
+  </si>
+  <si>
+    <t>RIS information in RIS file format — two letters, two spaces and a hyphen; no quotation mark required, e.g.
+TY  - JOUR
+AU  - Shannon, Claude E.
+PY  - 1948/07//
+TI  - A Mathematical Theory of Communication
+T2  - Bell System Technical Journal
+SP  - 379
+EP  - 423
+VL  - 27
+ER  - 
+https://en.wikipedia.org/wiki/RIS_(file_format)</t>
+  </si>
+  <si>
+    <t>Data_Type_4</t>
+  </si>
+  <si>
+    <t>Free text or any other data object which will be presented as string</t>
+  </si>
+  <si>
+    <t>VCard</t>
+  </si>
+  <si>
+    <t>Data_Type_13</t>
+  </si>
+  <si>
+    <t>This defines a representation for vCard data in JavaScript Object Notation (JSON);
+The keys of this JSON Object are the same as VCard properties enclosed between double quotes e.g. "fn":  "Simon Perreault" or "pref": 1
+e.g.:
+    {  
+    "version":"4.0", 
+    "fn":  "Simon Perreault",
+    "n": {
+        "surname": "Simon",
+        "given": "Perreault",
+        "suffix": [ "ing. jr", "M.Sc."]
+    },
+    "email": {
+    "type": "work",
+    "text": "simon.perreault@viagenie.ca"
+    }
+}</t>
+  </si>
+  <si>
+    <t>Vector[number]</t>
+  </si>
+  <si>
+    <t>Data_Type_10</t>
+  </si>
+  <si>
+    <t>One dimensional array of numbers.
+Values should be written inside square [ ] brackets, seperated by comma and each value can contain
+any decimal number It also uses a dot (decimal point) to represent decimal fractions .
+null represents empty value. e.g. [1,2,3,null,5,12.5]</t>
+  </si>
+  <si>
+    <t>Vector[string]</t>
+  </si>
+  <si>
+    <t>Data_Type_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One dimensional array of strings.
+Values should be written inside square [ ] brackets, seperated by comma and each value can contain
+any character and provided between two single quotes ' '. 
+null represents empty value e.g. [ 'A' , 'back' ,null, 'car' ]   </t>
   </si>
 </sst>
 </file>
@@ -114,4022 +308,6051 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6"/>
     </row>
     <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7"/>
     </row>
     <row r="8">
-      <c r="A8"/>
-      <c r="B8"/>
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8"/>
     </row>
     <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9"/>
     </row>
     <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10"/>
     </row>
     <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11"/>
     </row>
     <row r="12">
-      <c r="A12"/>
-      <c r="B12"/>
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12"/>
     </row>
     <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13"/>
     </row>
     <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14"/>
     </row>
     <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16"/>
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17"/>
-      <c r="B17"/>
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18"/>
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19"/>
       <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
     </row>
     <row r="21">
       <c r="A21"/>
       <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
     </row>
     <row r="23">
       <c r="A23"/>
       <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
     </row>
     <row r="25">
       <c r="A25"/>
       <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
     </row>
     <row r="27">
       <c r="A27"/>
       <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
     </row>
     <row r="28">
       <c r="A28"/>
       <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
     </row>
     <row r="29">
       <c r="A29"/>
       <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
     </row>
     <row r="31">
       <c r="A31"/>
       <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
     </row>
     <row r="32">
       <c r="A32"/>
       <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
     </row>
     <row r="33">
       <c r="A33"/>
       <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
     </row>
     <row r="34">
       <c r="A34"/>
       <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
     </row>
     <row r="35">
       <c r="A35"/>
       <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
     </row>
     <row r="36">
       <c r="A36"/>
       <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
     </row>
     <row r="37">
       <c r="A37"/>
       <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
     </row>
     <row r="39">
       <c r="A39"/>
       <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
     </row>
     <row r="40">
       <c r="A40"/>
       <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
     </row>
     <row r="41">
       <c r="A41"/>
       <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
     </row>
     <row r="42">
       <c r="A42"/>
       <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
     </row>
     <row r="43">
       <c r="A43"/>
       <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
     </row>
     <row r="44">
       <c r="A44"/>
       <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
     </row>
     <row r="45">
       <c r="A45"/>
       <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
     </row>
     <row r="46">
       <c r="A46"/>
       <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
     </row>
     <row r="47">
       <c r="A47"/>
       <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
     </row>
     <row r="48">
       <c r="A48"/>
       <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
     </row>
     <row r="49">
       <c r="A49"/>
       <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
     </row>
     <row r="50">
       <c r="A50"/>
       <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
     </row>
     <row r="51">
       <c r="A51"/>
       <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
     </row>
     <row r="52">
       <c r="A52"/>
       <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
     </row>
     <row r="53">
       <c r="A53"/>
       <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
     </row>
     <row r="54">
       <c r="A54"/>
       <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
     </row>
     <row r="55">
       <c r="A55"/>
       <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
     </row>
     <row r="56">
       <c r="A56"/>
       <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
     </row>
     <row r="57">
       <c r="A57"/>
       <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
     </row>
     <row r="58">
       <c r="A58"/>
       <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
     </row>
     <row r="59">
       <c r="A59"/>
       <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
     </row>
     <row r="60">
       <c r="A60"/>
       <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
     </row>
     <row r="61">
       <c r="A61"/>
       <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
     </row>
     <row r="62">
       <c r="A62"/>
       <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
     </row>
     <row r="63">
       <c r="A63"/>
       <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
     </row>
     <row r="64">
       <c r="A64"/>
       <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
     </row>
     <row r="65">
       <c r="A65"/>
       <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
     </row>
     <row r="66">
       <c r="A66"/>
       <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
     </row>
     <row r="67">
       <c r="A67"/>
       <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
     </row>
     <row r="68">
       <c r="A68"/>
       <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
     </row>
     <row r="69">
       <c r="A69"/>
       <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
     </row>
     <row r="70">
       <c r="A70"/>
       <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
     </row>
     <row r="71">
       <c r="A71"/>
       <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
     </row>
     <row r="72">
       <c r="A72"/>
       <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
     </row>
     <row r="73">
       <c r="A73"/>
       <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
     </row>
     <row r="74">
       <c r="A74"/>
       <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
     </row>
     <row r="75">
       <c r="A75"/>
       <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
     </row>
     <row r="76">
       <c r="A76"/>
       <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
     </row>
     <row r="77">
       <c r="A77"/>
       <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
     </row>
     <row r="78">
       <c r="A78"/>
       <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
     </row>
     <row r="79">
       <c r="A79"/>
       <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
     </row>
     <row r="80">
       <c r="A80"/>
       <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
     </row>
     <row r="81">
       <c r="A81"/>
       <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
     </row>
     <row r="82">
       <c r="A82"/>
       <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
     </row>
     <row r="83">
       <c r="A83"/>
       <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
     </row>
     <row r="84">
       <c r="A84"/>
       <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
     </row>
     <row r="85">
       <c r="A85"/>
       <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
     </row>
     <row r="86">
       <c r="A86"/>
       <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
     </row>
     <row r="87">
       <c r="A87"/>
       <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
     </row>
     <row r="88">
       <c r="A88"/>
       <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
     </row>
     <row r="89">
       <c r="A89"/>
       <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
     </row>
     <row r="90">
       <c r="A90"/>
       <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
     </row>
     <row r="91">
       <c r="A91"/>
       <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
     </row>
     <row r="92">
       <c r="A92"/>
       <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
     </row>
     <row r="93">
       <c r="A93"/>
       <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
     </row>
     <row r="94">
       <c r="A94"/>
       <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
     </row>
     <row r="95">
       <c r="A95"/>
       <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
     </row>
     <row r="96">
       <c r="A96"/>
       <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
     </row>
     <row r="97">
       <c r="A97"/>
       <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
     </row>
     <row r="98">
       <c r="A98"/>
       <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
     </row>
     <row r="99">
       <c r="A99"/>
       <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
     </row>
     <row r="100">
       <c r="A100"/>
       <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
     </row>
     <row r="101">
       <c r="A101"/>
       <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
     </row>
     <row r="102">
       <c r="A102"/>
       <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
     </row>
     <row r="103">
       <c r="A103"/>
       <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
     </row>
     <row r="104">
       <c r="A104"/>
       <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
     </row>
     <row r="105">
       <c r="A105"/>
       <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
     </row>
     <row r="106">
       <c r="A106"/>
       <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
     </row>
     <row r="107">
       <c r="A107"/>
       <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
     </row>
     <row r="108">
       <c r="A108"/>
       <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
     </row>
     <row r="109">
       <c r="A109"/>
       <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
     </row>
     <row r="110">
       <c r="A110"/>
       <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
     </row>
     <row r="111">
       <c r="A111"/>
       <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
     </row>
     <row r="112">
       <c r="A112"/>
       <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
     </row>
     <row r="113">
       <c r="A113"/>
       <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
     </row>
     <row r="114">
       <c r="A114"/>
       <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
     </row>
     <row r="115">
       <c r="A115"/>
       <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
     </row>
     <row r="116">
       <c r="A116"/>
       <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
     </row>
     <row r="117">
       <c r="A117"/>
       <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
     </row>
     <row r="118">
       <c r="A118"/>
       <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
     </row>
     <row r="119">
       <c r="A119"/>
       <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
     </row>
     <row r="120">
       <c r="A120"/>
       <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
     </row>
     <row r="121">
       <c r="A121"/>
       <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
     </row>
     <row r="122">
       <c r="A122"/>
       <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
     </row>
     <row r="123">
       <c r="A123"/>
       <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
     </row>
     <row r="124">
       <c r="A124"/>
       <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
     </row>
     <row r="125">
       <c r="A125"/>
       <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
     </row>
     <row r="126">
       <c r="A126"/>
       <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
     </row>
     <row r="127">
       <c r="A127"/>
       <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
     </row>
     <row r="128">
       <c r="A128"/>
       <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
     </row>
     <row r="129">
       <c r="A129"/>
       <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
     </row>
     <row r="130">
       <c r="A130"/>
       <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
     </row>
     <row r="131">
       <c r="A131"/>
       <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
     </row>
     <row r="132">
       <c r="A132"/>
       <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
     </row>
     <row r="133">
       <c r="A133"/>
       <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
     </row>
     <row r="134">
       <c r="A134"/>
       <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
     </row>
     <row r="135">
       <c r="A135"/>
       <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
     </row>
     <row r="136">
       <c r="A136"/>
       <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
     </row>
     <row r="137">
       <c r="A137"/>
       <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
     </row>
     <row r="138">
       <c r="A138"/>
       <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
     </row>
     <row r="139">
       <c r="A139"/>
       <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
     </row>
     <row r="140">
       <c r="A140"/>
       <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
     </row>
     <row r="141">
       <c r="A141"/>
       <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
     </row>
     <row r="142">
       <c r="A142"/>
       <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
     </row>
     <row r="143">
       <c r="A143"/>
       <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
     </row>
     <row r="144">
       <c r="A144"/>
       <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
     </row>
     <row r="145">
       <c r="A145"/>
       <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
     </row>
     <row r="146">
       <c r="A146"/>
       <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
     </row>
     <row r="147">
       <c r="A147"/>
       <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
     </row>
     <row r="148">
       <c r="A148"/>
       <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
     </row>
     <row r="149">
       <c r="A149"/>
       <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
     </row>
     <row r="150">
       <c r="A150"/>
       <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
     </row>
     <row r="151">
       <c r="A151"/>
       <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
     </row>
     <row r="152">
       <c r="A152"/>
       <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152"/>
     </row>
     <row r="153">
       <c r="A153"/>
       <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
     </row>
     <row r="154">
       <c r="A154"/>
       <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154"/>
     </row>
     <row r="155">
       <c r="A155"/>
       <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
     </row>
     <row r="156">
       <c r="A156"/>
       <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
     </row>
     <row r="157">
       <c r="A157"/>
       <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
     </row>
     <row r="158">
       <c r="A158"/>
       <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
     </row>
     <row r="159">
       <c r="A159"/>
       <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
     </row>
     <row r="160">
       <c r="A160"/>
       <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160"/>
     </row>
     <row r="161">
       <c r="A161"/>
       <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
     </row>
     <row r="162">
       <c r="A162"/>
       <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
     </row>
     <row r="163">
       <c r="A163"/>
       <c r="B163"/>
+      <c r="C163"/>
+      <c r="D163"/>
     </row>
     <row r="164">
       <c r="A164"/>
       <c r="B164"/>
+      <c r="C164"/>
+      <c r="D164"/>
     </row>
     <row r="165">
       <c r="A165"/>
       <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
     </row>
     <row r="166">
       <c r="A166"/>
       <c r="B166"/>
+      <c r="C166"/>
+      <c r="D166"/>
     </row>
     <row r="167">
       <c r="A167"/>
       <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
     </row>
     <row r="168">
       <c r="A168"/>
       <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
     </row>
     <row r="169">
       <c r="A169"/>
       <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
     </row>
     <row r="170">
       <c r="A170"/>
       <c r="B170"/>
+      <c r="C170"/>
+      <c r="D170"/>
     </row>
     <row r="171">
       <c r="A171"/>
       <c r="B171"/>
+      <c r="C171"/>
+      <c r="D171"/>
     </row>
     <row r="172">
       <c r="A172"/>
       <c r="B172"/>
+      <c r="C172"/>
+      <c r="D172"/>
     </row>
     <row r="173">
       <c r="A173"/>
       <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173"/>
     </row>
     <row r="174">
       <c r="A174"/>
       <c r="B174"/>
+      <c r="C174"/>
+      <c r="D174"/>
     </row>
     <row r="175">
       <c r="A175"/>
       <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175"/>
     </row>
     <row r="176">
       <c r="A176"/>
       <c r="B176"/>
+      <c r="C176"/>
+      <c r="D176"/>
     </row>
     <row r="177">
       <c r="A177"/>
       <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177"/>
     </row>
     <row r="178">
       <c r="A178"/>
       <c r="B178"/>
+      <c r="C178"/>
+      <c r="D178"/>
     </row>
     <row r="179">
       <c r="A179"/>
       <c r="B179"/>
+      <c r="C179"/>
+      <c r="D179"/>
     </row>
     <row r="180">
       <c r="A180"/>
       <c r="B180"/>
+      <c r="C180"/>
+      <c r="D180"/>
     </row>
     <row r="181">
       <c r="A181"/>
       <c r="B181"/>
+      <c r="C181"/>
+      <c r="D181"/>
     </row>
     <row r="182">
       <c r="A182"/>
       <c r="B182"/>
+      <c r="C182"/>
+      <c r="D182"/>
     </row>
     <row r="183">
       <c r="A183"/>
       <c r="B183"/>
+      <c r="C183"/>
+      <c r="D183"/>
     </row>
     <row r="184">
       <c r="A184"/>
       <c r="B184"/>
+      <c r="C184"/>
+      <c r="D184"/>
     </row>
     <row r="185">
       <c r="A185"/>
       <c r="B185"/>
+      <c r="C185"/>
+      <c r="D185"/>
     </row>
     <row r="186">
       <c r="A186"/>
       <c r="B186"/>
+      <c r="C186"/>
+      <c r="D186"/>
     </row>
     <row r="187">
       <c r="A187"/>
       <c r="B187"/>
+      <c r="C187"/>
+      <c r="D187"/>
     </row>
     <row r="188">
       <c r="A188"/>
       <c r="B188"/>
+      <c r="C188"/>
+      <c r="D188"/>
     </row>
     <row r="189">
       <c r="A189"/>
       <c r="B189"/>
+      <c r="C189"/>
+      <c r="D189"/>
     </row>
     <row r="190">
       <c r="A190"/>
       <c r="B190"/>
+      <c r="C190"/>
+      <c r="D190"/>
     </row>
     <row r="191">
       <c r="A191"/>
       <c r="B191"/>
+      <c r="C191"/>
+      <c r="D191"/>
     </row>
     <row r="192">
       <c r="A192"/>
       <c r="B192"/>
+      <c r="C192"/>
+      <c r="D192"/>
     </row>
     <row r="193">
       <c r="A193"/>
       <c r="B193"/>
+      <c r="C193"/>
+      <c r="D193"/>
     </row>
     <row r="194">
       <c r="A194"/>
       <c r="B194"/>
+      <c r="C194"/>
+      <c r="D194"/>
     </row>
     <row r="195">
       <c r="A195"/>
       <c r="B195"/>
+      <c r="C195"/>
+      <c r="D195"/>
     </row>
     <row r="196">
       <c r="A196"/>
       <c r="B196"/>
+      <c r="C196"/>
+      <c r="D196"/>
     </row>
     <row r="197">
       <c r="A197"/>
       <c r="B197"/>
+      <c r="C197"/>
+      <c r="D197"/>
     </row>
     <row r="198">
       <c r="A198"/>
       <c r="B198"/>
+      <c r="C198"/>
+      <c r="D198"/>
     </row>
     <row r="199">
       <c r="A199"/>
       <c r="B199"/>
+      <c r="C199"/>
+      <c r="D199"/>
     </row>
     <row r="200">
       <c r="A200"/>
       <c r="B200"/>
+      <c r="C200"/>
+      <c r="D200"/>
     </row>
     <row r="201">
       <c r="A201"/>
       <c r="B201"/>
+      <c r="C201"/>
+      <c r="D201"/>
     </row>
     <row r="202">
       <c r="A202"/>
       <c r="B202"/>
+      <c r="C202"/>
+      <c r="D202"/>
     </row>
     <row r="203">
       <c r="A203"/>
       <c r="B203"/>
+      <c r="C203"/>
+      <c r="D203"/>
     </row>
     <row r="204">
       <c r="A204"/>
       <c r="B204"/>
+      <c r="C204"/>
+      <c r="D204"/>
     </row>
     <row r="205">
       <c r="A205"/>
       <c r="B205"/>
+      <c r="C205"/>
+      <c r="D205"/>
     </row>
     <row r="206">
       <c r="A206"/>
       <c r="B206"/>
+      <c r="C206"/>
+      <c r="D206"/>
     </row>
     <row r="207">
       <c r="A207"/>
       <c r="B207"/>
+      <c r="C207"/>
+      <c r="D207"/>
     </row>
     <row r="208">
       <c r="A208"/>
       <c r="B208"/>
+      <c r="C208"/>
+      <c r="D208"/>
     </row>
     <row r="209">
       <c r="A209"/>
       <c r="B209"/>
+      <c r="C209"/>
+      <c r="D209"/>
     </row>
     <row r="210">
       <c r="A210"/>
       <c r="B210"/>
+      <c r="C210"/>
+      <c r="D210"/>
     </row>
     <row r="211">
       <c r="A211"/>
       <c r="B211"/>
+      <c r="C211"/>
+      <c r="D211"/>
     </row>
     <row r="212">
       <c r="A212"/>
       <c r="B212"/>
+      <c r="C212"/>
+      <c r="D212"/>
     </row>
     <row r="213">
       <c r="A213"/>
       <c r="B213"/>
+      <c r="C213"/>
+      <c r="D213"/>
     </row>
     <row r="214">
       <c r="A214"/>
       <c r="B214"/>
+      <c r="C214"/>
+      <c r="D214"/>
     </row>
     <row r="215">
       <c r="A215"/>
       <c r="B215"/>
+      <c r="C215"/>
+      <c r="D215"/>
     </row>
     <row r="216">
       <c r="A216"/>
       <c r="B216"/>
+      <c r="C216"/>
+      <c r="D216"/>
     </row>
     <row r="217">
       <c r="A217"/>
       <c r="B217"/>
+      <c r="C217"/>
+      <c r="D217"/>
     </row>
     <row r="218">
       <c r="A218"/>
       <c r="B218"/>
+      <c r="C218"/>
+      <c r="D218"/>
     </row>
     <row r="219">
       <c r="A219"/>
       <c r="B219"/>
+      <c r="C219"/>
+      <c r="D219"/>
     </row>
     <row r="220">
       <c r="A220"/>
       <c r="B220"/>
+      <c r="C220"/>
+      <c r="D220"/>
     </row>
     <row r="221">
       <c r="A221"/>
       <c r="B221"/>
+      <c r="C221"/>
+      <c r="D221"/>
     </row>
     <row r="222">
       <c r="A222"/>
       <c r="B222"/>
+      <c r="C222"/>
+      <c r="D222"/>
     </row>
     <row r="223">
       <c r="A223"/>
       <c r="B223"/>
+      <c r="C223"/>
+      <c r="D223"/>
     </row>
     <row r="224">
       <c r="A224"/>
       <c r="B224"/>
+      <c r="C224"/>
+      <c r="D224"/>
     </row>
     <row r="225">
       <c r="A225"/>
       <c r="B225"/>
+      <c r="C225"/>
+      <c r="D225"/>
     </row>
     <row r="226">
       <c r="A226"/>
       <c r="B226"/>
+      <c r="C226"/>
+      <c r="D226"/>
     </row>
     <row r="227">
       <c r="A227"/>
       <c r="B227"/>
+      <c r="C227"/>
+      <c r="D227"/>
     </row>
     <row r="228">
       <c r="A228"/>
       <c r="B228"/>
+      <c r="C228"/>
+      <c r="D228"/>
     </row>
     <row r="229">
       <c r="A229"/>
       <c r="B229"/>
+      <c r="C229"/>
+      <c r="D229"/>
     </row>
     <row r="230">
       <c r="A230"/>
       <c r="B230"/>
+      <c r="C230"/>
+      <c r="D230"/>
     </row>
     <row r="231">
       <c r="A231"/>
       <c r="B231"/>
+      <c r="C231"/>
+      <c r="D231"/>
     </row>
     <row r="232">
       <c r="A232"/>
       <c r="B232"/>
+      <c r="C232"/>
+      <c r="D232"/>
     </row>
     <row r="233">
       <c r="A233"/>
       <c r="B233"/>
+      <c r="C233"/>
+      <c r="D233"/>
     </row>
     <row r="234">
       <c r="A234"/>
       <c r="B234"/>
+      <c r="C234"/>
+      <c r="D234"/>
     </row>
     <row r="235">
       <c r="A235"/>
       <c r="B235"/>
+      <c r="C235"/>
+      <c r="D235"/>
     </row>
     <row r="236">
       <c r="A236"/>
       <c r="B236"/>
+      <c r="C236"/>
+      <c r="D236"/>
     </row>
     <row r="237">
       <c r="A237"/>
       <c r="B237"/>
+      <c r="C237"/>
+      <c r="D237"/>
     </row>
     <row r="238">
       <c r="A238"/>
       <c r="B238"/>
+      <c r="C238"/>
+      <c r="D238"/>
     </row>
     <row r="239">
       <c r="A239"/>
       <c r="B239"/>
+      <c r="C239"/>
+      <c r="D239"/>
     </row>
     <row r="240">
       <c r="A240"/>
       <c r="B240"/>
+      <c r="C240"/>
+      <c r="D240"/>
     </row>
     <row r="241">
       <c r="A241"/>
       <c r="B241"/>
+      <c r="C241"/>
+      <c r="D241"/>
     </row>
     <row r="242">
       <c r="A242"/>
       <c r="B242"/>
+      <c r="C242"/>
+      <c r="D242"/>
     </row>
     <row r="243">
       <c r="A243"/>
       <c r="B243"/>
+      <c r="C243"/>
+      <c r="D243"/>
     </row>
     <row r="244">
       <c r="A244"/>
       <c r="B244"/>
+      <c r="C244"/>
+      <c r="D244"/>
     </row>
     <row r="245">
       <c r="A245"/>
       <c r="B245"/>
+      <c r="C245"/>
+      <c r="D245"/>
     </row>
     <row r="246">
       <c r="A246"/>
       <c r="B246"/>
+      <c r="C246"/>
+      <c r="D246"/>
     </row>
     <row r="247">
       <c r="A247"/>
       <c r="B247"/>
+      <c r="C247"/>
+      <c r="D247"/>
     </row>
     <row r="248">
       <c r="A248"/>
       <c r="B248"/>
+      <c r="C248"/>
+      <c r="D248"/>
     </row>
     <row r="249">
       <c r="A249"/>
       <c r="B249"/>
+      <c r="C249"/>
+      <c r="D249"/>
     </row>
     <row r="250">
       <c r="A250"/>
       <c r="B250"/>
+      <c r="C250"/>
+      <c r="D250"/>
     </row>
     <row r="251">
       <c r="A251"/>
       <c r="B251"/>
+      <c r="C251"/>
+      <c r="D251"/>
     </row>
     <row r="252">
       <c r="A252"/>
       <c r="B252"/>
+      <c r="C252"/>
+      <c r="D252"/>
     </row>
     <row r="253">
       <c r="A253"/>
       <c r="B253"/>
+      <c r="C253"/>
+      <c r="D253"/>
     </row>
     <row r="254">
       <c r="A254"/>
       <c r="B254"/>
+      <c r="C254"/>
+      <c r="D254"/>
     </row>
     <row r="255">
       <c r="A255"/>
       <c r="B255"/>
+      <c r="C255"/>
+      <c r="D255"/>
     </row>
     <row r="256">
       <c r="A256"/>
       <c r="B256"/>
+      <c r="C256"/>
+      <c r="D256"/>
     </row>
     <row r="257">
       <c r="A257"/>
       <c r="B257"/>
+      <c r="C257"/>
+      <c r="D257"/>
     </row>
     <row r="258">
       <c r="A258"/>
       <c r="B258"/>
+      <c r="C258"/>
+      <c r="D258"/>
     </row>
     <row r="259">
       <c r="A259"/>
       <c r="B259"/>
+      <c r="C259"/>
+      <c r="D259"/>
     </row>
     <row r="260">
       <c r="A260"/>
       <c r="B260"/>
+      <c r="C260"/>
+      <c r="D260"/>
     </row>
     <row r="261">
       <c r="A261"/>
       <c r="B261"/>
+      <c r="C261"/>
+      <c r="D261"/>
     </row>
     <row r="262">
       <c r="A262"/>
       <c r="B262"/>
+      <c r="C262"/>
+      <c r="D262"/>
     </row>
     <row r="263">
       <c r="A263"/>
       <c r="B263"/>
+      <c r="C263"/>
+      <c r="D263"/>
     </row>
     <row r="264">
       <c r="A264"/>
       <c r="B264"/>
+      <c r="C264"/>
+      <c r="D264"/>
     </row>
     <row r="265">
       <c r="A265"/>
       <c r="B265"/>
+      <c r="C265"/>
+      <c r="D265"/>
     </row>
     <row r="266">
       <c r="A266"/>
       <c r="B266"/>
+      <c r="C266"/>
+      <c r="D266"/>
     </row>
     <row r="267">
       <c r="A267"/>
       <c r="B267"/>
+      <c r="C267"/>
+      <c r="D267"/>
     </row>
     <row r="268">
       <c r="A268"/>
       <c r="B268"/>
+      <c r="C268"/>
+      <c r="D268"/>
     </row>
     <row r="269">
       <c r="A269"/>
       <c r="B269"/>
+      <c r="C269"/>
+      <c r="D269"/>
     </row>
     <row r="270">
       <c r="A270"/>
       <c r="B270"/>
+      <c r="C270"/>
+      <c r="D270"/>
     </row>
     <row r="271">
       <c r="A271"/>
       <c r="B271"/>
+      <c r="C271"/>
+      <c r="D271"/>
     </row>
     <row r="272">
       <c r="A272"/>
       <c r="B272"/>
+      <c r="C272"/>
+      <c r="D272"/>
     </row>
     <row r="273">
       <c r="A273"/>
       <c r="B273"/>
+      <c r="C273"/>
+      <c r="D273"/>
     </row>
     <row r="274">
       <c r="A274"/>
       <c r="B274"/>
+      <c r="C274"/>
+      <c r="D274"/>
     </row>
     <row r="275">
       <c r="A275"/>
       <c r="B275"/>
+      <c r="C275"/>
+      <c r="D275"/>
     </row>
     <row r="276">
       <c r="A276"/>
       <c r="B276"/>
+      <c r="C276"/>
+      <c r="D276"/>
     </row>
     <row r="277">
       <c r="A277"/>
       <c r="B277"/>
+      <c r="C277"/>
+      <c r="D277"/>
     </row>
     <row r="278">
       <c r="A278"/>
       <c r="B278"/>
+      <c r="C278"/>
+      <c r="D278"/>
     </row>
     <row r="279">
       <c r="A279"/>
       <c r="B279"/>
+      <c r="C279"/>
+      <c r="D279"/>
     </row>
     <row r="280">
       <c r="A280"/>
       <c r="B280"/>
+      <c r="C280"/>
+      <c r="D280"/>
     </row>
     <row r="281">
       <c r="A281"/>
       <c r="B281"/>
+      <c r="C281"/>
+      <c r="D281"/>
     </row>
     <row r="282">
       <c r="A282"/>
       <c r="B282"/>
+      <c r="C282"/>
+      <c r="D282"/>
     </row>
     <row r="283">
       <c r="A283"/>
       <c r="B283"/>
+      <c r="C283"/>
+      <c r="D283"/>
     </row>
     <row r="284">
       <c r="A284"/>
       <c r="B284"/>
+      <c r="C284"/>
+      <c r="D284"/>
     </row>
     <row r="285">
       <c r="A285"/>
       <c r="B285"/>
+      <c r="C285"/>
+      <c r="D285"/>
     </row>
     <row r="286">
       <c r="A286"/>
       <c r="B286"/>
+      <c r="C286"/>
+      <c r="D286"/>
     </row>
     <row r="287">
       <c r="A287"/>
       <c r="B287"/>
+      <c r="C287"/>
+      <c r="D287"/>
     </row>
     <row r="288">
       <c r="A288"/>
       <c r="B288"/>
+      <c r="C288"/>
+      <c r="D288"/>
     </row>
     <row r="289">
       <c r="A289"/>
       <c r="B289"/>
+      <c r="C289"/>
+      <c r="D289"/>
     </row>
     <row r="290">
       <c r="A290"/>
       <c r="B290"/>
+      <c r="C290"/>
+      <c r="D290"/>
     </row>
     <row r="291">
       <c r="A291"/>
       <c r="B291"/>
+      <c r="C291"/>
+      <c r="D291"/>
     </row>
     <row r="292">
       <c r="A292"/>
       <c r="B292"/>
+      <c r="C292"/>
+      <c r="D292"/>
     </row>
     <row r="293">
       <c r="A293"/>
       <c r="B293"/>
+      <c r="C293"/>
+      <c r="D293"/>
     </row>
     <row r="294">
       <c r="A294"/>
       <c r="B294"/>
+      <c r="C294"/>
+      <c r="D294"/>
     </row>
     <row r="295">
       <c r="A295"/>
       <c r="B295"/>
+      <c r="C295"/>
+      <c r="D295"/>
     </row>
     <row r="296">
       <c r="A296"/>
       <c r="B296"/>
+      <c r="C296"/>
+      <c r="D296"/>
     </row>
     <row r="297">
       <c r="A297"/>
       <c r="B297"/>
+      <c r="C297"/>
+      <c r="D297"/>
     </row>
     <row r="298">
       <c r="A298"/>
       <c r="B298"/>
+      <c r="C298"/>
+      <c r="D298"/>
     </row>
     <row r="299">
       <c r="A299"/>
       <c r="B299"/>
+      <c r="C299"/>
+      <c r="D299"/>
     </row>
     <row r="300">
       <c r="A300"/>
       <c r="B300"/>
+      <c r="C300"/>
+      <c r="D300"/>
     </row>
     <row r="301">
       <c r="A301"/>
       <c r="B301"/>
+      <c r="C301"/>
+      <c r="D301"/>
     </row>
     <row r="302">
       <c r="A302"/>
       <c r="B302"/>
+      <c r="C302"/>
+      <c r="D302"/>
     </row>
     <row r="303">
       <c r="A303"/>
       <c r="B303"/>
+      <c r="C303"/>
+      <c r="D303"/>
     </row>
     <row r="304">
       <c r="A304"/>
       <c r="B304"/>
+      <c r="C304"/>
+      <c r="D304"/>
     </row>
     <row r="305">
       <c r="A305"/>
       <c r="B305"/>
+      <c r="C305"/>
+      <c r="D305"/>
     </row>
     <row r="306">
       <c r="A306"/>
       <c r="B306"/>
+      <c r="C306"/>
+      <c r="D306"/>
     </row>
     <row r="307">
       <c r="A307"/>
       <c r="B307"/>
+      <c r="C307"/>
+      <c r="D307"/>
     </row>
     <row r="308">
       <c r="A308"/>
       <c r="B308"/>
+      <c r="C308"/>
+      <c r="D308"/>
     </row>
     <row r="309">
       <c r="A309"/>
       <c r="B309"/>
+      <c r="C309"/>
+      <c r="D309"/>
     </row>
     <row r="310">
       <c r="A310"/>
       <c r="B310"/>
+      <c r="C310"/>
+      <c r="D310"/>
     </row>
     <row r="311">
       <c r="A311"/>
       <c r="B311"/>
+      <c r="C311"/>
+      <c r="D311"/>
     </row>
     <row r="312">
       <c r="A312"/>
       <c r="B312"/>
+      <c r="C312"/>
+      <c r="D312"/>
     </row>
     <row r="313">
       <c r="A313"/>
       <c r="B313"/>
+      <c r="C313"/>
+      <c r="D313"/>
     </row>
     <row r="314">
       <c r="A314"/>
       <c r="B314"/>
+      <c r="C314"/>
+      <c r="D314"/>
     </row>
     <row r="315">
       <c r="A315"/>
       <c r="B315"/>
+      <c r="C315"/>
+      <c r="D315"/>
     </row>
     <row r="316">
       <c r="A316"/>
       <c r="B316"/>
+      <c r="C316"/>
+      <c r="D316"/>
     </row>
     <row r="317">
       <c r="A317"/>
       <c r="B317"/>
+      <c r="C317"/>
+      <c r="D317"/>
     </row>
     <row r="318">
       <c r="A318"/>
       <c r="B318"/>
+      <c r="C318"/>
+      <c r="D318"/>
     </row>
     <row r="319">
       <c r="A319"/>
       <c r="B319"/>
+      <c r="C319"/>
+      <c r="D319"/>
     </row>
     <row r="320">
       <c r="A320"/>
       <c r="B320"/>
+      <c r="C320"/>
+      <c r="D320"/>
     </row>
     <row r="321">
       <c r="A321"/>
       <c r="B321"/>
+      <c r="C321"/>
+      <c r="D321"/>
     </row>
     <row r="322">
       <c r="A322"/>
       <c r="B322"/>
+      <c r="C322"/>
+      <c r="D322"/>
     </row>
     <row r="323">
       <c r="A323"/>
       <c r="B323"/>
+      <c r="C323"/>
+      <c r="D323"/>
     </row>
     <row r="324">
       <c r="A324"/>
       <c r="B324"/>
+      <c r="C324"/>
+      <c r="D324"/>
     </row>
     <row r="325">
       <c r="A325"/>
       <c r="B325"/>
+      <c r="C325"/>
+      <c r="D325"/>
     </row>
     <row r="326">
       <c r="A326"/>
       <c r="B326"/>
+      <c r="C326"/>
+      <c r="D326"/>
     </row>
     <row r="327">
       <c r="A327"/>
       <c r="B327"/>
+      <c r="C327"/>
+      <c r="D327"/>
     </row>
     <row r="328">
       <c r="A328"/>
       <c r="B328"/>
+      <c r="C328"/>
+      <c r="D328"/>
     </row>
     <row r="329">
       <c r="A329"/>
       <c r="B329"/>
+      <c r="C329"/>
+      <c r="D329"/>
     </row>
     <row r="330">
       <c r="A330"/>
       <c r="B330"/>
+      <c r="C330"/>
+      <c r="D330"/>
     </row>
     <row r="331">
       <c r="A331"/>
       <c r="B331"/>
+      <c r="C331"/>
+      <c r="D331"/>
     </row>
     <row r="332">
       <c r="A332"/>
       <c r="B332"/>
+      <c r="C332"/>
+      <c r="D332"/>
     </row>
     <row r="333">
       <c r="A333"/>
       <c r="B333"/>
+      <c r="C333"/>
+      <c r="D333"/>
     </row>
     <row r="334">
       <c r="A334"/>
       <c r="B334"/>
+      <c r="C334"/>
+      <c r="D334"/>
     </row>
     <row r="335">
       <c r="A335"/>
       <c r="B335"/>
+      <c r="C335"/>
+      <c r="D335"/>
     </row>
     <row r="336">
       <c r="A336"/>
       <c r="B336"/>
+      <c r="C336"/>
+      <c r="D336"/>
     </row>
     <row r="337">
       <c r="A337"/>
       <c r="B337"/>
+      <c r="C337"/>
+      <c r="D337"/>
     </row>
     <row r="338">
       <c r="A338"/>
       <c r="B338"/>
+      <c r="C338"/>
+      <c r="D338"/>
     </row>
     <row r="339">
       <c r="A339"/>
       <c r="B339"/>
+      <c r="C339"/>
+      <c r="D339"/>
     </row>
     <row r="340">
       <c r="A340"/>
       <c r="B340"/>
+      <c r="C340"/>
+      <c r="D340"/>
     </row>
     <row r="341">
       <c r="A341"/>
       <c r="B341"/>
+      <c r="C341"/>
+      <c r="D341"/>
     </row>
     <row r="342">
       <c r="A342"/>
       <c r="B342"/>
+      <c r="C342"/>
+      <c r="D342"/>
     </row>
     <row r="343">
       <c r="A343"/>
       <c r="B343"/>
+      <c r="C343"/>
+      <c r="D343"/>
     </row>
     <row r="344">
       <c r="A344"/>
       <c r="B344"/>
+      <c r="C344"/>
+      <c r="D344"/>
     </row>
     <row r="345">
       <c r="A345"/>
       <c r="B345"/>
+      <c r="C345"/>
+      <c r="D345"/>
     </row>
     <row r="346">
       <c r="A346"/>
       <c r="B346"/>
+      <c r="C346"/>
+      <c r="D346"/>
     </row>
     <row r="347">
       <c r="A347"/>
       <c r="B347"/>
+      <c r="C347"/>
+      <c r="D347"/>
     </row>
     <row r="348">
       <c r="A348"/>
       <c r="B348"/>
+      <c r="C348"/>
+      <c r="D348"/>
     </row>
     <row r="349">
       <c r="A349"/>
       <c r="B349"/>
+      <c r="C349"/>
+      <c r="D349"/>
     </row>
     <row r="350">
       <c r="A350"/>
       <c r="B350"/>
+      <c r="C350"/>
+      <c r="D350"/>
     </row>
     <row r="351">
       <c r="A351"/>
       <c r="B351"/>
+      <c r="C351"/>
+      <c r="D351"/>
     </row>
     <row r="352">
       <c r="A352"/>
       <c r="B352"/>
+      <c r="C352"/>
+      <c r="D352"/>
     </row>
     <row r="353">
       <c r="A353"/>
       <c r="B353"/>
+      <c r="C353"/>
+      <c r="D353"/>
     </row>
     <row r="354">
       <c r="A354"/>
       <c r="B354"/>
+      <c r="C354"/>
+      <c r="D354"/>
     </row>
     <row r="355">
       <c r="A355"/>
       <c r="B355"/>
+      <c r="C355"/>
+      <c r="D355"/>
     </row>
     <row r="356">
       <c r="A356"/>
       <c r="B356"/>
+      <c r="C356"/>
+      <c r="D356"/>
     </row>
     <row r="357">
       <c r="A357"/>
       <c r="B357"/>
+      <c r="C357"/>
+      <c r="D357"/>
     </row>
     <row r="358">
       <c r="A358"/>
       <c r="B358"/>
+      <c r="C358"/>
+      <c r="D358"/>
     </row>
     <row r="359">
       <c r="A359"/>
       <c r="B359"/>
+      <c r="C359"/>
+      <c r="D359"/>
     </row>
     <row r="360">
       <c r="A360"/>
       <c r="B360"/>
+      <c r="C360"/>
+      <c r="D360"/>
     </row>
     <row r="361">
       <c r="A361"/>
       <c r="B361"/>
+      <c r="C361"/>
+      <c r="D361"/>
     </row>
     <row r="362">
       <c r="A362"/>
       <c r="B362"/>
+      <c r="C362"/>
+      <c r="D362"/>
     </row>
     <row r="363">
       <c r="A363"/>
       <c r="B363"/>
+      <c r="C363"/>
+      <c r="D363"/>
     </row>
     <row r="364">
       <c r="A364"/>
       <c r="B364"/>
+      <c r="C364"/>
+      <c r="D364"/>
     </row>
     <row r="365">
       <c r="A365"/>
       <c r="B365"/>
+      <c r="C365"/>
+      <c r="D365"/>
     </row>
     <row r="366">
       <c r="A366"/>
       <c r="B366"/>
+      <c r="C366"/>
+      <c r="D366"/>
     </row>
     <row r="367">
       <c r="A367"/>
       <c r="B367"/>
+      <c r="C367"/>
+      <c r="D367"/>
     </row>
     <row r="368">
       <c r="A368"/>
       <c r="B368"/>
+      <c r="C368"/>
+      <c r="D368"/>
     </row>
     <row r="369">
       <c r="A369"/>
       <c r="B369"/>
+      <c r="C369"/>
+      <c r="D369"/>
     </row>
     <row r="370">
       <c r="A370"/>
       <c r="B370"/>
+      <c r="C370"/>
+      <c r="D370"/>
     </row>
     <row r="371">
       <c r="A371"/>
       <c r="B371"/>
+      <c r="C371"/>
+      <c r="D371"/>
     </row>
     <row r="372">
       <c r="A372"/>
       <c r="B372"/>
+      <c r="C372"/>
+      <c r="D372"/>
     </row>
     <row r="373">
       <c r="A373"/>
       <c r="B373"/>
+      <c r="C373"/>
+      <c r="D373"/>
     </row>
     <row r="374">
       <c r="A374"/>
       <c r="B374"/>
+      <c r="C374"/>
+      <c r="D374"/>
     </row>
     <row r="375">
       <c r="A375"/>
       <c r="B375"/>
+      <c r="C375"/>
+      <c r="D375"/>
     </row>
     <row r="376">
       <c r="A376"/>
       <c r="B376"/>
+      <c r="C376"/>
+      <c r="D376"/>
     </row>
     <row r="377">
       <c r="A377"/>
       <c r="B377"/>
+      <c r="C377"/>
+      <c r="D377"/>
     </row>
     <row r="378">
       <c r="A378"/>
       <c r="B378"/>
+      <c r="C378"/>
+      <c r="D378"/>
     </row>
     <row r="379">
       <c r="A379"/>
       <c r="B379"/>
+      <c r="C379"/>
+      <c r="D379"/>
     </row>
     <row r="380">
       <c r="A380"/>
       <c r="B380"/>
+      <c r="C380"/>
+      <c r="D380"/>
     </row>
     <row r="381">
       <c r="A381"/>
       <c r="B381"/>
+      <c r="C381"/>
+      <c r="D381"/>
     </row>
     <row r="382">
       <c r="A382"/>
       <c r="B382"/>
+      <c r="C382"/>
+      <c r="D382"/>
     </row>
     <row r="383">
       <c r="A383"/>
       <c r="B383"/>
+      <c r="C383"/>
+      <c r="D383"/>
     </row>
     <row r="384">
       <c r="A384"/>
       <c r="B384"/>
+      <c r="C384"/>
+      <c r="D384"/>
     </row>
     <row r="385">
       <c r="A385"/>
       <c r="B385"/>
+      <c r="C385"/>
+      <c r="D385"/>
     </row>
     <row r="386">
       <c r="A386"/>
       <c r="B386"/>
+      <c r="C386"/>
+      <c r="D386"/>
     </row>
     <row r="387">
       <c r="A387"/>
       <c r="B387"/>
+      <c r="C387"/>
+      <c r="D387"/>
     </row>
     <row r="388">
       <c r="A388"/>
       <c r="B388"/>
+      <c r="C388"/>
+      <c r="D388"/>
     </row>
     <row r="389">
       <c r="A389"/>
       <c r="B389"/>
+      <c r="C389"/>
+      <c r="D389"/>
     </row>
     <row r="390">
       <c r="A390"/>
       <c r="B390"/>
+      <c r="C390"/>
+      <c r="D390"/>
     </row>
     <row r="391">
       <c r="A391"/>
       <c r="B391"/>
+      <c r="C391"/>
+      <c r="D391"/>
     </row>
     <row r="392">
       <c r="A392"/>
       <c r="B392"/>
+      <c r="C392"/>
+      <c r="D392"/>
     </row>
     <row r="393">
       <c r="A393"/>
       <c r="B393"/>
+      <c r="C393"/>
+      <c r="D393"/>
     </row>
     <row r="394">
       <c r="A394"/>
       <c r="B394"/>
+      <c r="C394"/>
+      <c r="D394"/>
     </row>
     <row r="395">
       <c r="A395"/>
       <c r="B395"/>
+      <c r="C395"/>
+      <c r="D395"/>
     </row>
     <row r="396">
       <c r="A396"/>
       <c r="B396"/>
+      <c r="C396"/>
+      <c r="D396"/>
     </row>
     <row r="397">
       <c r="A397"/>
       <c r="B397"/>
+      <c r="C397"/>
+      <c r="D397"/>
     </row>
     <row r="398">
       <c r="A398"/>
       <c r="B398"/>
+      <c r="C398"/>
+      <c r="D398"/>
     </row>
     <row r="399">
       <c r="A399"/>
       <c r="B399"/>
+      <c r="C399"/>
+      <c r="D399"/>
     </row>
     <row r="400">
       <c r="A400"/>
       <c r="B400"/>
+      <c r="C400"/>
+      <c r="D400"/>
     </row>
     <row r="401">
       <c r="A401"/>
       <c r="B401"/>
+      <c r="C401"/>
+      <c r="D401"/>
     </row>
     <row r="402">
       <c r="A402"/>
       <c r="B402"/>
+      <c r="C402"/>
+      <c r="D402"/>
     </row>
     <row r="403">
       <c r="A403"/>
       <c r="B403"/>
+      <c r="C403"/>
+      <c r="D403"/>
     </row>
     <row r="404">
       <c r="A404"/>
       <c r="B404"/>
+      <c r="C404"/>
+      <c r="D404"/>
     </row>
     <row r="405">
       <c r="A405"/>
       <c r="B405"/>
+      <c r="C405"/>
+      <c r="D405"/>
     </row>
     <row r="406">
       <c r="A406"/>
       <c r="B406"/>
+      <c r="C406"/>
+      <c r="D406"/>
     </row>
     <row r="407">
       <c r="A407"/>
       <c r="B407"/>
+      <c r="C407"/>
+      <c r="D407"/>
     </row>
     <row r="408">
       <c r="A408"/>
       <c r="B408"/>
+      <c r="C408"/>
+      <c r="D408"/>
     </row>
     <row r="409">
       <c r="A409"/>
       <c r="B409"/>
+      <c r="C409"/>
+      <c r="D409"/>
     </row>
     <row r="410">
       <c r="A410"/>
       <c r="B410"/>
+      <c r="C410"/>
+      <c r="D410"/>
     </row>
     <row r="411">
       <c r="A411"/>
       <c r="B411"/>
+      <c r="C411"/>
+      <c r="D411"/>
     </row>
     <row r="412">
       <c r="A412"/>
       <c r="B412"/>
+      <c r="C412"/>
+      <c r="D412"/>
     </row>
     <row r="413">
       <c r="A413"/>
       <c r="B413"/>
+      <c r="C413"/>
+      <c r="D413"/>
     </row>
     <row r="414">
       <c r="A414"/>
       <c r="B414"/>
+      <c r="C414"/>
+      <c r="D414"/>
     </row>
     <row r="415">
       <c r="A415"/>
       <c r="B415"/>
+      <c r="C415"/>
+      <c r="D415"/>
     </row>
     <row r="416">
       <c r="A416"/>
       <c r="B416"/>
+      <c r="C416"/>
+      <c r="D416"/>
     </row>
     <row r="417">
       <c r="A417"/>
       <c r="B417"/>
+      <c r="C417"/>
+      <c r="D417"/>
     </row>
     <row r="418">
       <c r="A418"/>
       <c r="B418"/>
+      <c r="C418"/>
+      <c r="D418"/>
     </row>
     <row r="419">
       <c r="A419"/>
       <c r="B419"/>
+      <c r="C419"/>
+      <c r="D419"/>
     </row>
     <row r="420">
       <c r="A420"/>
       <c r="B420"/>
+      <c r="C420"/>
+      <c r="D420"/>
     </row>
     <row r="421">
       <c r="A421"/>
       <c r="B421"/>
+      <c r="C421"/>
+      <c r="D421"/>
     </row>
     <row r="422">
       <c r="A422"/>
       <c r="B422"/>
+      <c r="C422"/>
+      <c r="D422"/>
     </row>
     <row r="423">
       <c r="A423"/>
       <c r="B423"/>
+      <c r="C423"/>
+      <c r="D423"/>
     </row>
     <row r="424">
       <c r="A424"/>
       <c r="B424"/>
+      <c r="C424"/>
+      <c r="D424"/>
     </row>
     <row r="425">
       <c r="A425"/>
       <c r="B425"/>
+      <c r="C425"/>
+      <c r="D425"/>
     </row>
     <row r="426">
       <c r="A426"/>
       <c r="B426"/>
+      <c r="C426"/>
+      <c r="D426"/>
     </row>
     <row r="427">
       <c r="A427"/>
       <c r="B427"/>
+      <c r="C427"/>
+      <c r="D427"/>
     </row>
     <row r="428">
       <c r="A428"/>
       <c r="B428"/>
+      <c r="C428"/>
+      <c r="D428"/>
     </row>
     <row r="429">
       <c r="A429"/>
       <c r="B429"/>
+      <c r="C429"/>
+      <c r="D429"/>
     </row>
     <row r="430">
       <c r="A430"/>
       <c r="B430"/>
+      <c r="C430"/>
+      <c r="D430"/>
     </row>
     <row r="431">
       <c r="A431"/>
       <c r="B431"/>
+      <c r="C431"/>
+      <c r="D431"/>
     </row>
     <row r="432">
       <c r="A432"/>
       <c r="B432"/>
+      <c r="C432"/>
+      <c r="D432"/>
     </row>
     <row r="433">
       <c r="A433"/>
       <c r="B433"/>
+      <c r="C433"/>
+      <c r="D433"/>
     </row>
     <row r="434">
       <c r="A434"/>
       <c r="B434"/>
+      <c r="C434"/>
+      <c r="D434"/>
     </row>
     <row r="435">
       <c r="A435"/>
       <c r="B435"/>
+      <c r="C435"/>
+      <c r="D435"/>
     </row>
     <row r="436">
       <c r="A436"/>
       <c r="B436"/>
+      <c r="C436"/>
+      <c r="D436"/>
     </row>
     <row r="437">
       <c r="A437"/>
       <c r="B437"/>
+      <c r="C437"/>
+      <c r="D437"/>
     </row>
     <row r="438">
       <c r="A438"/>
       <c r="B438"/>
+      <c r="C438"/>
+      <c r="D438"/>
     </row>
     <row r="439">
       <c r="A439"/>
       <c r="B439"/>
+      <c r="C439"/>
+      <c r="D439"/>
     </row>
     <row r="440">
       <c r="A440"/>
       <c r="B440"/>
+      <c r="C440"/>
+      <c r="D440"/>
     </row>
     <row r="441">
       <c r="A441"/>
       <c r="B441"/>
+      <c r="C441"/>
+      <c r="D441"/>
     </row>
     <row r="442">
       <c r="A442"/>
       <c r="B442"/>
+      <c r="C442"/>
+      <c r="D442"/>
     </row>
     <row r="443">
       <c r="A443"/>
       <c r="B443"/>
+      <c r="C443"/>
+      <c r="D443"/>
     </row>
     <row r="444">
       <c r="A444"/>
       <c r="B444"/>
+      <c r="C444"/>
+      <c r="D444"/>
     </row>
     <row r="445">
       <c r="A445"/>
       <c r="B445"/>
+      <c r="C445"/>
+      <c r="D445"/>
     </row>
     <row r="446">
       <c r="A446"/>
       <c r="B446"/>
+      <c r="C446"/>
+      <c r="D446"/>
     </row>
     <row r="447">
       <c r="A447"/>
       <c r="B447"/>
+      <c r="C447"/>
+      <c r="D447"/>
     </row>
     <row r="448">
       <c r="A448"/>
       <c r="B448"/>
+      <c r="C448"/>
+      <c r="D448"/>
     </row>
     <row r="449">
       <c r="A449"/>
       <c r="B449"/>
+      <c r="C449"/>
+      <c r="D449"/>
     </row>
     <row r="450">
       <c r="A450"/>
       <c r="B450"/>
+      <c r="C450"/>
+      <c r="D450"/>
     </row>
     <row r="451">
       <c r="A451"/>
       <c r="B451"/>
+      <c r="C451"/>
+      <c r="D451"/>
     </row>
     <row r="452">
       <c r="A452"/>
       <c r="B452"/>
+      <c r="C452"/>
+      <c r="D452"/>
     </row>
     <row r="453">
       <c r="A453"/>
       <c r="B453"/>
+      <c r="C453"/>
+      <c r="D453"/>
     </row>
     <row r="454">
       <c r="A454"/>
       <c r="B454"/>
+      <c r="C454"/>
+      <c r="D454"/>
     </row>
     <row r="455">
       <c r="A455"/>
       <c r="B455"/>
+      <c r="C455"/>
+      <c r="D455"/>
     </row>
     <row r="456">
       <c r="A456"/>
       <c r="B456"/>
+      <c r="C456"/>
+      <c r="D456"/>
     </row>
     <row r="457">
       <c r="A457"/>
       <c r="B457"/>
+      <c r="C457"/>
+      <c r="D457"/>
     </row>
     <row r="458">
       <c r="A458"/>
       <c r="B458"/>
+      <c r="C458"/>
+      <c r="D458"/>
     </row>
     <row r="459">
       <c r="A459"/>
       <c r="B459"/>
+      <c r="C459"/>
+      <c r="D459"/>
     </row>
     <row r="460">
       <c r="A460"/>
       <c r="B460"/>
+      <c r="C460"/>
+      <c r="D460"/>
     </row>
     <row r="461">
       <c r="A461"/>
       <c r="B461"/>
+      <c r="C461"/>
+      <c r="D461"/>
     </row>
     <row r="462">
       <c r="A462"/>
       <c r="B462"/>
+      <c r="C462"/>
+      <c r="D462"/>
     </row>
     <row r="463">
       <c r="A463"/>
       <c r="B463"/>
+      <c r="C463"/>
+      <c r="D463"/>
     </row>
     <row r="464">
       <c r="A464"/>
       <c r="B464"/>
+      <c r="C464"/>
+      <c r="D464"/>
     </row>
     <row r="465">
       <c r="A465"/>
       <c r="B465"/>
+      <c r="C465"/>
+      <c r="D465"/>
     </row>
     <row r="466">
       <c r="A466"/>
       <c r="B466"/>
+      <c r="C466"/>
+      <c r="D466"/>
     </row>
     <row r="467">
       <c r="A467"/>
       <c r="B467"/>
+      <c r="C467"/>
+      <c r="D467"/>
     </row>
     <row r="468">
       <c r="A468"/>
       <c r="B468"/>
+      <c r="C468"/>
+      <c r="D468"/>
     </row>
     <row r="469">
       <c r="A469"/>
       <c r="B469"/>
+      <c r="C469"/>
+      <c r="D469"/>
     </row>
     <row r="470">
       <c r="A470"/>
       <c r="B470"/>
+      <c r="C470"/>
+      <c r="D470"/>
     </row>
     <row r="471">
       <c r="A471"/>
       <c r="B471"/>
+      <c r="C471"/>
+      <c r="D471"/>
     </row>
     <row r="472">
       <c r="A472"/>
       <c r="B472"/>
+      <c r="C472"/>
+      <c r="D472"/>
     </row>
     <row r="473">
       <c r="A473"/>
       <c r="B473"/>
+      <c r="C473"/>
+      <c r="D473"/>
     </row>
     <row r="474">
       <c r="A474"/>
       <c r="B474"/>
+      <c r="C474"/>
+      <c r="D474"/>
     </row>
     <row r="475">
       <c r="A475"/>
       <c r="B475"/>
+      <c r="C475"/>
+      <c r="D475"/>
     </row>
     <row r="476">
       <c r="A476"/>
       <c r="B476"/>
+      <c r="C476"/>
+      <c r="D476"/>
     </row>
     <row r="477">
       <c r="A477"/>
       <c r="B477"/>
+      <c r="C477"/>
+      <c r="D477"/>
     </row>
     <row r="478">
       <c r="A478"/>
       <c r="B478"/>
+      <c r="C478"/>
+      <c r="D478"/>
     </row>
     <row r="479">
       <c r="A479"/>
       <c r="B479"/>
+      <c r="C479"/>
+      <c r="D479"/>
     </row>
     <row r="480">
       <c r="A480"/>
       <c r="B480"/>
+      <c r="C480"/>
+      <c r="D480"/>
     </row>
     <row r="481">
       <c r="A481"/>
       <c r="B481"/>
+      <c r="C481"/>
+      <c r="D481"/>
     </row>
     <row r="482">
       <c r="A482"/>
       <c r="B482"/>
+      <c r="C482"/>
+      <c r="D482"/>
     </row>
     <row r="483">
       <c r="A483"/>
       <c r="B483"/>
+      <c r="C483"/>
+      <c r="D483"/>
     </row>
     <row r="484">
       <c r="A484"/>
       <c r="B484"/>
+      <c r="C484"/>
+      <c r="D484"/>
     </row>
     <row r="485">
       <c r="A485"/>
       <c r="B485"/>
+      <c r="C485"/>
+      <c r="D485"/>
     </row>
     <row r="486">
       <c r="A486"/>
       <c r="B486"/>
+      <c r="C486"/>
+      <c r="D486"/>
     </row>
     <row r="487">
       <c r="A487"/>
       <c r="B487"/>
+      <c r="C487"/>
+      <c r="D487"/>
     </row>
     <row r="488">
       <c r="A488"/>
       <c r="B488"/>
+      <c r="C488"/>
+      <c r="D488"/>
     </row>
     <row r="489">
       <c r="A489"/>
       <c r="B489"/>
+      <c r="C489"/>
+      <c r="D489"/>
     </row>
     <row r="490">
       <c r="A490"/>
       <c r="B490"/>
+      <c r="C490"/>
+      <c r="D490"/>
     </row>
     <row r="491">
       <c r="A491"/>
       <c r="B491"/>
+      <c r="C491"/>
+      <c r="D491"/>
     </row>
     <row r="492">
       <c r="A492"/>
       <c r="B492"/>
+      <c r="C492"/>
+      <c r="D492"/>
     </row>
     <row r="493">
       <c r="A493"/>
       <c r="B493"/>
+      <c r="C493"/>
+      <c r="D493"/>
     </row>
     <row r="494">
       <c r="A494"/>
       <c r="B494"/>
+      <c r="C494"/>
+      <c r="D494"/>
     </row>
     <row r="495">
       <c r="A495"/>
       <c r="B495"/>
+      <c r="C495"/>
+      <c r="D495"/>
     </row>
     <row r="496">
       <c r="A496"/>
       <c r="B496"/>
+      <c r="C496"/>
+      <c r="D496"/>
     </row>
     <row r="497">
       <c r="A497"/>
       <c r="B497"/>
+      <c r="C497"/>
+      <c r="D497"/>
     </row>
     <row r="498">
       <c r="A498"/>
       <c r="B498"/>
+      <c r="C498"/>
+      <c r="D498"/>
     </row>
     <row r="499">
       <c r="A499"/>
       <c r="B499"/>
+      <c r="C499"/>
+      <c r="D499"/>
     </row>
     <row r="500">
       <c r="A500"/>
       <c r="B500"/>
+      <c r="C500"/>
+      <c r="D500"/>
     </row>
     <row r="501">
       <c r="A501"/>
       <c r="B501"/>
+      <c r="C501"/>
+      <c r="D501"/>
     </row>
     <row r="502">
       <c r="A502"/>
       <c r="B502"/>
+      <c r="C502"/>
+      <c r="D502"/>
     </row>
     <row r="503">
       <c r="A503"/>
       <c r="B503"/>
+      <c r="C503"/>
+      <c r="D503"/>
     </row>
     <row r="504">
       <c r="A504"/>
       <c r="B504"/>
+      <c r="C504"/>
+      <c r="D504"/>
     </row>
     <row r="505">
       <c r="A505"/>
       <c r="B505"/>
+      <c r="C505"/>
+      <c r="D505"/>
     </row>
     <row r="506">
       <c r="A506"/>
       <c r="B506"/>
+      <c r="C506"/>
+      <c r="D506"/>
     </row>
     <row r="507">
       <c r="A507"/>
       <c r="B507"/>
+      <c r="C507"/>
+      <c r="D507"/>
     </row>
     <row r="508">
       <c r="A508"/>
       <c r="B508"/>
+      <c r="C508"/>
+      <c r="D508"/>
     </row>
     <row r="509">
       <c r="A509"/>
       <c r="B509"/>
+      <c r="C509"/>
+      <c r="D509"/>
     </row>
     <row r="510">
       <c r="A510"/>
       <c r="B510"/>
+      <c r="C510"/>
+      <c r="D510"/>
     </row>
     <row r="511">
       <c r="A511"/>
       <c r="B511"/>
+      <c r="C511"/>
+      <c r="D511"/>
     </row>
     <row r="512">
       <c r="A512"/>
       <c r="B512"/>
+      <c r="C512"/>
+      <c r="D512"/>
     </row>
     <row r="513">
       <c r="A513"/>
       <c r="B513"/>
+      <c r="C513"/>
+      <c r="D513"/>
     </row>
     <row r="514">
       <c r="A514"/>
       <c r="B514"/>
+      <c r="C514"/>
+      <c r="D514"/>
     </row>
     <row r="515">
       <c r="A515"/>
       <c r="B515"/>
+      <c r="C515"/>
+      <c r="D515"/>
     </row>
     <row r="516">
       <c r="A516"/>
       <c r="B516"/>
+      <c r="C516"/>
+      <c r="D516"/>
     </row>
     <row r="517">
       <c r="A517"/>
       <c r="B517"/>
+      <c r="C517"/>
+      <c r="D517"/>
     </row>
     <row r="518">
       <c r="A518"/>
       <c r="B518"/>
+      <c r="C518"/>
+      <c r="D518"/>
     </row>
     <row r="519">
       <c r="A519"/>
       <c r="B519"/>
+      <c r="C519"/>
+      <c r="D519"/>
     </row>
     <row r="520">
       <c r="A520"/>
       <c r="B520"/>
+      <c r="C520"/>
+      <c r="D520"/>
     </row>
     <row r="521">
       <c r="A521"/>
       <c r="B521"/>
+      <c r="C521"/>
+      <c r="D521"/>
     </row>
     <row r="522">
       <c r="A522"/>
       <c r="B522"/>
+      <c r="C522"/>
+      <c r="D522"/>
     </row>
     <row r="523">
       <c r="A523"/>
       <c r="B523"/>
+      <c r="C523"/>
+      <c r="D523"/>
     </row>
     <row r="524">
       <c r="A524"/>
       <c r="B524"/>
+      <c r="C524"/>
+      <c r="D524"/>
     </row>
     <row r="525">
       <c r="A525"/>
       <c r="B525"/>
+      <c r="C525"/>
+      <c r="D525"/>
     </row>
     <row r="526">
       <c r="A526"/>
       <c r="B526"/>
+      <c r="C526"/>
+      <c r="D526"/>
     </row>
     <row r="527">
       <c r="A527"/>
       <c r="B527"/>
+      <c r="C527"/>
+      <c r="D527"/>
     </row>
     <row r="528">
       <c r="A528"/>
       <c r="B528"/>
+      <c r="C528"/>
+      <c r="D528"/>
     </row>
     <row r="529">
       <c r="A529"/>
       <c r="B529"/>
+      <c r="C529"/>
+      <c r="D529"/>
     </row>
     <row r="530">
       <c r="A530"/>
       <c r="B530"/>
+      <c r="C530"/>
+      <c r="D530"/>
     </row>
     <row r="531">
       <c r="A531"/>
       <c r="B531"/>
+      <c r="C531"/>
+      <c r="D531"/>
     </row>
     <row r="532">
       <c r="A532"/>
       <c r="B532"/>
+      <c r="C532"/>
+      <c r="D532"/>
     </row>
     <row r="533">
       <c r="A533"/>
       <c r="B533"/>
+      <c r="C533"/>
+      <c r="D533"/>
     </row>
     <row r="534">
       <c r="A534"/>
       <c r="B534"/>
+      <c r="C534"/>
+      <c r="D534"/>
     </row>
     <row r="535">
       <c r="A535"/>
       <c r="B535"/>
+      <c r="C535"/>
+      <c r="D535"/>
     </row>
     <row r="536">
       <c r="A536"/>
       <c r="B536"/>
+      <c r="C536"/>
+      <c r="D536"/>
     </row>
     <row r="537">
       <c r="A537"/>
       <c r="B537"/>
+      <c r="C537"/>
+      <c r="D537"/>
     </row>
     <row r="538">
       <c r="A538"/>
       <c r="B538"/>
+      <c r="C538"/>
+      <c r="D538"/>
     </row>
     <row r="539">
       <c r="A539"/>
       <c r="B539"/>
+      <c r="C539"/>
+      <c r="D539"/>
     </row>
     <row r="540">
       <c r="A540"/>
       <c r="B540"/>
+      <c r="C540"/>
+      <c r="D540"/>
     </row>
     <row r="541">
       <c r="A541"/>
       <c r="B541"/>
+      <c r="C541"/>
+      <c r="D541"/>
     </row>
     <row r="542">
       <c r="A542"/>
       <c r="B542"/>
+      <c r="C542"/>
+      <c r="D542"/>
     </row>
     <row r="543">
       <c r="A543"/>
       <c r="B543"/>
+      <c r="C543"/>
+      <c r="D543"/>
     </row>
     <row r="544">
       <c r="A544"/>
       <c r="B544"/>
+      <c r="C544"/>
+      <c r="D544"/>
     </row>
     <row r="545">
       <c r="A545"/>
       <c r="B545"/>
+      <c r="C545"/>
+      <c r="D545"/>
     </row>
     <row r="546">
       <c r="A546"/>
       <c r="B546"/>
+      <c r="C546"/>
+      <c r="D546"/>
     </row>
     <row r="547">
       <c r="A547"/>
       <c r="B547"/>
+      <c r="C547"/>
+      <c r="D547"/>
     </row>
     <row r="548">
       <c r="A548"/>
       <c r="B548"/>
+      <c r="C548"/>
+      <c r="D548"/>
     </row>
     <row r="549">
       <c r="A549"/>
       <c r="B549"/>
+      <c r="C549"/>
+      <c r="D549"/>
     </row>
     <row r="550">
       <c r="A550"/>
       <c r="B550"/>
+      <c r="C550"/>
+      <c r="D550"/>
     </row>
     <row r="551">
       <c r="A551"/>
       <c r="B551"/>
+      <c r="C551"/>
+      <c r="D551"/>
     </row>
     <row r="552">
       <c r="A552"/>
       <c r="B552"/>
+      <c r="C552"/>
+      <c r="D552"/>
     </row>
     <row r="553">
       <c r="A553"/>
       <c r="B553"/>
+      <c r="C553"/>
+      <c r="D553"/>
     </row>
     <row r="554">
       <c r="A554"/>
       <c r="B554"/>
+      <c r="C554"/>
+      <c r="D554"/>
     </row>
     <row r="555">
       <c r="A555"/>
       <c r="B555"/>
+      <c r="C555"/>
+      <c r="D555"/>
     </row>
     <row r="556">
       <c r="A556"/>
       <c r="B556"/>
+      <c r="C556"/>
+      <c r="D556"/>
     </row>
     <row r="557">
       <c r="A557"/>
       <c r="B557"/>
+      <c r="C557"/>
+      <c r="D557"/>
     </row>
     <row r="558">
       <c r="A558"/>
       <c r="B558"/>
+      <c r="C558"/>
+      <c r="D558"/>
     </row>
     <row r="559">
       <c r="A559"/>
       <c r="B559"/>
+      <c r="C559"/>
+      <c r="D559"/>
     </row>
     <row r="560">
       <c r="A560"/>
       <c r="B560"/>
+      <c r="C560"/>
+      <c r="D560"/>
     </row>
     <row r="561">
       <c r="A561"/>
       <c r="B561"/>
+      <c r="C561"/>
+      <c r="D561"/>
     </row>
     <row r="562">
       <c r="A562"/>
       <c r="B562"/>
+      <c r="C562"/>
+      <c r="D562"/>
     </row>
     <row r="563">
       <c r="A563"/>
       <c r="B563"/>
+      <c r="C563"/>
+      <c r="D563"/>
     </row>
     <row r="564">
       <c r="A564"/>
       <c r="B564"/>
+      <c r="C564"/>
+      <c r="D564"/>
     </row>
     <row r="565">
       <c r="A565"/>
       <c r="B565"/>
+      <c r="C565"/>
+      <c r="D565"/>
     </row>
     <row r="566">
       <c r="A566"/>
       <c r="B566"/>
+      <c r="C566"/>
+      <c r="D566"/>
     </row>
     <row r="567">
       <c r="A567"/>
       <c r="B567"/>
+      <c r="C567"/>
+      <c r="D567"/>
     </row>
     <row r="568">
       <c r="A568"/>
       <c r="B568"/>
+      <c r="C568"/>
+      <c r="D568"/>
     </row>
     <row r="569">
       <c r="A569"/>
       <c r="B569"/>
+      <c r="C569"/>
+      <c r="D569"/>
     </row>
     <row r="570">
       <c r="A570"/>
       <c r="B570"/>
+      <c r="C570"/>
+      <c r="D570"/>
     </row>
     <row r="571">
       <c r="A571"/>
       <c r="B571"/>
+      <c r="C571"/>
+      <c r="D571"/>
     </row>
     <row r="572">
       <c r="A572"/>
       <c r="B572"/>
+      <c r="C572"/>
+      <c r="D572"/>
     </row>
     <row r="573">
       <c r="A573"/>
       <c r="B573"/>
+      <c r="C573"/>
+      <c r="D573"/>
     </row>
     <row r="574">
       <c r="A574"/>
       <c r="B574"/>
+      <c r="C574"/>
+      <c r="D574"/>
     </row>
     <row r="575">
       <c r="A575"/>
       <c r="B575"/>
+      <c r="C575"/>
+      <c r="D575"/>
     </row>
     <row r="576">
       <c r="A576"/>
       <c r="B576"/>
+      <c r="C576"/>
+      <c r="D576"/>
     </row>
     <row r="577">
       <c r="A577"/>
       <c r="B577"/>
+      <c r="C577"/>
+      <c r="D577"/>
     </row>
     <row r="578">
       <c r="A578"/>
       <c r="B578"/>
+      <c r="C578"/>
+      <c r="D578"/>
     </row>
     <row r="579">
       <c r="A579"/>
       <c r="B579"/>
+      <c r="C579"/>
+      <c r="D579"/>
     </row>
     <row r="580">
       <c r="A580"/>
       <c r="B580"/>
+      <c r="C580"/>
+      <c r="D580"/>
     </row>
     <row r="581">
       <c r="A581"/>
       <c r="B581"/>
+      <c r="C581"/>
+      <c r="D581"/>
     </row>
     <row r="582">
       <c r="A582"/>
       <c r="B582"/>
+      <c r="C582"/>
+      <c r="D582"/>
     </row>
     <row r="583">
       <c r="A583"/>
       <c r="B583"/>
+      <c r="C583"/>
+      <c r="D583"/>
     </row>
     <row r="584">
       <c r="A584"/>
       <c r="B584"/>
+      <c r="C584"/>
+      <c r="D584"/>
     </row>
     <row r="585">
       <c r="A585"/>
       <c r="B585"/>
+      <c r="C585"/>
+      <c r="D585"/>
     </row>
     <row r="586">
       <c r="A586"/>
       <c r="B586"/>
+      <c r="C586"/>
+      <c r="D586"/>
     </row>
     <row r="587">
       <c r="A587"/>
       <c r="B587"/>
+      <c r="C587"/>
+      <c r="D587"/>
     </row>
     <row r="588">
       <c r="A588"/>
       <c r="B588"/>
+      <c r="C588"/>
+      <c r="D588"/>
     </row>
     <row r="589">
       <c r="A589"/>
       <c r="B589"/>
+      <c r="C589"/>
+      <c r="D589"/>
     </row>
     <row r="590">
       <c r="A590"/>
       <c r="B590"/>
+      <c r="C590"/>
+      <c r="D590"/>
     </row>
     <row r="591">
       <c r="A591"/>
       <c r="B591"/>
+      <c r="C591"/>
+      <c r="D591"/>
     </row>
     <row r="592">
       <c r="A592"/>
       <c r="B592"/>
+      <c r="C592"/>
+      <c r="D592"/>
     </row>
     <row r="593">
       <c r="A593"/>
       <c r="B593"/>
+      <c r="C593"/>
+      <c r="D593"/>
     </row>
     <row r="594">
       <c r="A594"/>
       <c r="B594"/>
+      <c r="C594"/>
+      <c r="D594"/>
     </row>
     <row r="595">
       <c r="A595"/>
       <c r="B595"/>
+      <c r="C595"/>
+      <c r="D595"/>
     </row>
     <row r="596">
       <c r="A596"/>
       <c r="B596"/>
+      <c r="C596"/>
+      <c r="D596"/>
     </row>
     <row r="597">
       <c r="A597"/>
       <c r="B597"/>
+      <c r="C597"/>
+      <c r="D597"/>
     </row>
     <row r="598">
       <c r="A598"/>
       <c r="B598"/>
+      <c r="C598"/>
+      <c r="D598"/>
     </row>
     <row r="599">
       <c r="A599"/>
       <c r="B599"/>
+      <c r="C599"/>
+      <c r="D599"/>
     </row>
     <row r="600">
       <c r="A600"/>
       <c r="B600"/>
+      <c r="C600"/>
+      <c r="D600"/>
     </row>
     <row r="601">
       <c r="A601"/>
       <c r="B601"/>
+      <c r="C601"/>
+      <c r="D601"/>
     </row>
     <row r="602">
       <c r="A602"/>
       <c r="B602"/>
+      <c r="C602"/>
+      <c r="D602"/>
     </row>
     <row r="603">
       <c r="A603"/>
       <c r="B603"/>
+      <c r="C603"/>
+      <c r="D603"/>
     </row>
     <row r="604">
       <c r="A604"/>
       <c r="B604"/>
+      <c r="C604"/>
+      <c r="D604"/>
     </row>
     <row r="605">
       <c r="A605"/>
       <c r="B605"/>
+      <c r="C605"/>
+      <c r="D605"/>
     </row>
     <row r="606">
       <c r="A606"/>
       <c r="B606"/>
+      <c r="C606"/>
+      <c r="D606"/>
     </row>
     <row r="607">
       <c r="A607"/>
       <c r="B607"/>
+      <c r="C607"/>
+      <c r="D607"/>
     </row>
     <row r="608">
       <c r="A608"/>
       <c r="B608"/>
+      <c r="C608"/>
+      <c r="D608"/>
     </row>
     <row r="609">
       <c r="A609"/>
       <c r="B609"/>
+      <c r="C609"/>
+      <c r="D609"/>
     </row>
     <row r="610">
       <c r="A610"/>
       <c r="B610"/>
+      <c r="C610"/>
+      <c r="D610"/>
     </row>
     <row r="611">
       <c r="A611"/>
       <c r="B611"/>
+      <c r="C611"/>
+      <c r="D611"/>
     </row>
     <row r="612">
       <c r="A612"/>
       <c r="B612"/>
+      <c r="C612"/>
+      <c r="D612"/>
     </row>
     <row r="613">
       <c r="A613"/>
       <c r="B613"/>
+      <c r="C613"/>
+      <c r="D613"/>
     </row>
     <row r="614">
       <c r="A614"/>
       <c r="B614"/>
+      <c r="C614"/>
+      <c r="D614"/>
     </row>
     <row r="615">
       <c r="A615"/>
       <c r="B615"/>
+      <c r="C615"/>
+      <c r="D615"/>
     </row>
     <row r="616">
       <c r="A616"/>
       <c r="B616"/>
+      <c r="C616"/>
+      <c r="D616"/>
     </row>
     <row r="617">
       <c r="A617"/>
       <c r="B617"/>
+      <c r="C617"/>
+      <c r="D617"/>
     </row>
     <row r="618">
       <c r="A618"/>
       <c r="B618"/>
+      <c r="C618"/>
+      <c r="D618"/>
     </row>
     <row r="619">
       <c r="A619"/>
       <c r="B619"/>
+      <c r="C619"/>
+      <c r="D619"/>
     </row>
     <row r="620">
       <c r="A620"/>
       <c r="B620"/>
+      <c r="C620"/>
+      <c r="D620"/>
     </row>
     <row r="621">
       <c r="A621"/>
       <c r="B621"/>
+      <c r="C621"/>
+      <c r="D621"/>
     </row>
     <row r="622">
       <c r="A622"/>
       <c r="B622"/>
+      <c r="C622"/>
+      <c r="D622"/>
     </row>
     <row r="623">
       <c r="A623"/>
       <c r="B623"/>
+      <c r="C623"/>
+      <c r="D623"/>
     </row>
     <row r="624">
       <c r="A624"/>
       <c r="B624"/>
+      <c r="C624"/>
+      <c r="D624"/>
     </row>
     <row r="625">
       <c r="A625"/>
       <c r="B625"/>
+      <c r="C625"/>
+      <c r="D625"/>
     </row>
     <row r="626">
       <c r="A626"/>
       <c r="B626"/>
+      <c r="C626"/>
+      <c r="D626"/>
     </row>
     <row r="627">
       <c r="A627"/>
       <c r="B627"/>
+      <c r="C627"/>
+      <c r="D627"/>
     </row>
     <row r="628">
       <c r="A628"/>
       <c r="B628"/>
+      <c r="C628"/>
+      <c r="D628"/>
     </row>
     <row r="629">
       <c r="A629"/>
       <c r="B629"/>
+      <c r="C629"/>
+      <c r="D629"/>
     </row>
     <row r="630">
       <c r="A630"/>
       <c r="B630"/>
+      <c r="C630"/>
+      <c r="D630"/>
     </row>
     <row r="631">
       <c r="A631"/>
       <c r="B631"/>
+      <c r="C631"/>
+      <c r="D631"/>
     </row>
     <row r="632">
       <c r="A632"/>
       <c r="B632"/>
+      <c r="C632"/>
+      <c r="D632"/>
     </row>
     <row r="633">
       <c r="A633"/>
       <c r="B633"/>
+      <c r="C633"/>
+      <c r="D633"/>
     </row>
     <row r="634">
       <c r="A634"/>
       <c r="B634"/>
+      <c r="C634"/>
+      <c r="D634"/>
     </row>
     <row r="635">
       <c r="A635"/>
       <c r="B635"/>
+      <c r="C635"/>
+      <c r="D635"/>
     </row>
     <row r="636">
       <c r="A636"/>
       <c r="B636"/>
+      <c r="C636"/>
+      <c r="D636"/>
     </row>
     <row r="637">
       <c r="A637"/>
       <c r="B637"/>
+      <c r="C637"/>
+      <c r="D637"/>
     </row>
     <row r="638">
       <c r="A638"/>
       <c r="B638"/>
+      <c r="C638"/>
+      <c r="D638"/>
     </row>
     <row r="639">
       <c r="A639"/>
       <c r="B639"/>
+      <c r="C639"/>
+      <c r="D639"/>
     </row>
     <row r="640">
       <c r="A640"/>
       <c r="B640"/>
+      <c r="C640"/>
+      <c r="D640"/>
     </row>
     <row r="641">
       <c r="A641"/>
       <c r="B641"/>
+      <c r="C641"/>
+      <c r="D641"/>
     </row>
     <row r="642">
       <c r="A642"/>
       <c r="B642"/>
+      <c r="C642"/>
+      <c r="D642"/>
     </row>
     <row r="643">
       <c r="A643"/>
       <c r="B643"/>
+      <c r="C643"/>
+      <c r="D643"/>
     </row>
     <row r="644">
       <c r="A644"/>
       <c r="B644"/>
+      <c r="C644"/>
+      <c r="D644"/>
     </row>
     <row r="645">
       <c r="A645"/>
       <c r="B645"/>
+      <c r="C645"/>
+      <c r="D645"/>
     </row>
     <row r="646">
       <c r="A646"/>
       <c r="B646"/>
+      <c r="C646"/>
+      <c r="D646"/>
     </row>
     <row r="647">
       <c r="A647"/>
       <c r="B647"/>
+      <c r="C647"/>
+      <c r="D647"/>
     </row>
     <row r="648">
       <c r="A648"/>
       <c r="B648"/>
+      <c r="C648"/>
+      <c r="D648"/>
     </row>
     <row r="649">
       <c r="A649"/>
       <c r="B649"/>
+      <c r="C649"/>
+      <c r="D649"/>
     </row>
     <row r="650">
       <c r="A650"/>
       <c r="B650"/>
+      <c r="C650"/>
+      <c r="D650"/>
     </row>
     <row r="651">
       <c r="A651"/>
       <c r="B651"/>
+      <c r="C651"/>
+      <c r="D651"/>
     </row>
     <row r="652">
       <c r="A652"/>
       <c r="B652"/>
+      <c r="C652"/>
+      <c r="D652"/>
     </row>
     <row r="653">
       <c r="A653"/>
       <c r="B653"/>
+      <c r="C653"/>
+      <c r="D653"/>
     </row>
     <row r="654">
       <c r="A654"/>
       <c r="B654"/>
+      <c r="C654"/>
+      <c r="D654"/>
     </row>
     <row r="655">
       <c r="A655"/>
       <c r="B655"/>
+      <c r="C655"/>
+      <c r="D655"/>
     </row>
     <row r="656">
       <c r="A656"/>
       <c r="B656"/>
+      <c r="C656"/>
+      <c r="D656"/>
     </row>
     <row r="657">
       <c r="A657"/>
       <c r="B657"/>
+      <c r="C657"/>
+      <c r="D657"/>
     </row>
     <row r="658">
       <c r="A658"/>
       <c r="B658"/>
+      <c r="C658"/>
+      <c r="D658"/>
     </row>
     <row r="659">
       <c r="A659"/>
       <c r="B659"/>
+      <c r="C659"/>
+      <c r="D659"/>
     </row>
     <row r="660">
       <c r="A660"/>
       <c r="B660"/>
+      <c r="C660"/>
+      <c r="D660"/>
     </row>
     <row r="661">
       <c r="A661"/>
       <c r="B661"/>
+      <c r="C661"/>
+      <c r="D661"/>
     </row>
     <row r="662">
       <c r="A662"/>
       <c r="B662"/>
+      <c r="C662"/>
+      <c r="D662"/>
     </row>
     <row r="663">
       <c r="A663"/>
       <c r="B663"/>
+      <c r="C663"/>
+      <c r="D663"/>
     </row>
     <row r="664">
       <c r="A664"/>
       <c r="B664"/>
+      <c r="C664"/>
+      <c r="D664"/>
     </row>
     <row r="665">
       <c r="A665"/>
       <c r="B665"/>
+      <c r="C665"/>
+      <c r="D665"/>
     </row>
     <row r="666">
       <c r="A666"/>
       <c r="B666"/>
+      <c r="C666"/>
+      <c r="D666"/>
     </row>
     <row r="667">
       <c r="A667"/>
       <c r="B667"/>
+      <c r="C667"/>
+      <c r="D667"/>
     </row>
     <row r="668">
       <c r="A668"/>
       <c r="B668"/>
+      <c r="C668"/>
+      <c r="D668"/>
     </row>
     <row r="669">
       <c r="A669"/>
       <c r="B669"/>
+      <c r="C669"/>
+      <c r="D669"/>
     </row>
     <row r="670">
       <c r="A670"/>
       <c r="B670"/>
+      <c r="C670"/>
+      <c r="D670"/>
     </row>
     <row r="671">
       <c r="A671"/>
       <c r="B671"/>
+      <c r="C671"/>
+      <c r="D671"/>
     </row>
     <row r="672">
       <c r="A672"/>
       <c r="B672"/>
+      <c r="C672"/>
+      <c r="D672"/>
     </row>
     <row r="673">
       <c r="A673"/>
       <c r="B673"/>
+      <c r="C673"/>
+      <c r="D673"/>
     </row>
     <row r="674">
       <c r="A674"/>
       <c r="B674"/>
+      <c r="C674"/>
+      <c r="D674"/>
     </row>
     <row r="675">
       <c r="A675"/>
       <c r="B675"/>
+      <c r="C675"/>
+      <c r="D675"/>
     </row>
     <row r="676">
       <c r="A676"/>
       <c r="B676"/>
+      <c r="C676"/>
+      <c r="D676"/>
     </row>
     <row r="677">
       <c r="A677"/>
       <c r="B677"/>
+      <c r="C677"/>
+      <c r="D677"/>
     </row>
     <row r="678">
       <c r="A678"/>
       <c r="B678"/>
+      <c r="C678"/>
+      <c r="D678"/>
     </row>
     <row r="679">
       <c r="A679"/>
       <c r="B679"/>
+      <c r="C679"/>
+      <c r="D679"/>
     </row>
     <row r="680">
       <c r="A680"/>
       <c r="B680"/>
+      <c r="C680"/>
+      <c r="D680"/>
     </row>
     <row r="681">
       <c r="A681"/>
       <c r="B681"/>
+      <c r="C681"/>
+      <c r="D681"/>
     </row>
     <row r="682">
       <c r="A682"/>
       <c r="B682"/>
+      <c r="C682"/>
+      <c r="D682"/>
     </row>
     <row r="683">
       <c r="A683"/>
       <c r="B683"/>
+      <c r="C683"/>
+      <c r="D683"/>
     </row>
     <row r="684">
       <c r="A684"/>
       <c r="B684"/>
+      <c r="C684"/>
+      <c r="D684"/>
     </row>
     <row r="685">
       <c r="A685"/>
       <c r="B685"/>
+      <c r="C685"/>
+      <c r="D685"/>
     </row>
     <row r="686">
       <c r="A686"/>
       <c r="B686"/>
+      <c r="C686"/>
+      <c r="D686"/>
     </row>
     <row r="687">
       <c r="A687"/>
       <c r="B687"/>
+      <c r="C687"/>
+      <c r="D687"/>
     </row>
     <row r="688">
       <c r="A688"/>
       <c r="B688"/>
+      <c r="C688"/>
+      <c r="D688"/>
     </row>
     <row r="689">
       <c r="A689"/>
       <c r="B689"/>
+      <c r="C689"/>
+      <c r="D689"/>
     </row>
     <row r="690">
       <c r="A690"/>
       <c r="B690"/>
+      <c r="C690"/>
+      <c r="D690"/>
     </row>
     <row r="691">
       <c r="A691"/>
       <c r="B691"/>
+      <c r="C691"/>
+      <c r="D691"/>
     </row>
     <row r="692">
       <c r="A692"/>
       <c r="B692"/>
+      <c r="C692"/>
+      <c r="D692"/>
     </row>
     <row r="693">
       <c r="A693"/>
       <c r="B693"/>
+      <c r="C693"/>
+      <c r="D693"/>
     </row>
     <row r="694">
       <c r="A694"/>
       <c r="B694"/>
+      <c r="C694"/>
+      <c r="D694"/>
     </row>
     <row r="695">
       <c r="A695"/>
       <c r="B695"/>
+      <c r="C695"/>
+      <c r="D695"/>
     </row>
     <row r="696">
       <c r="A696"/>
       <c r="B696"/>
+      <c r="C696"/>
+      <c r="D696"/>
     </row>
     <row r="697">
       <c r="A697"/>
       <c r="B697"/>
+      <c r="C697"/>
+      <c r="D697"/>
     </row>
     <row r="698">
       <c r="A698"/>
       <c r="B698"/>
+      <c r="C698"/>
+      <c r="D698"/>
     </row>
     <row r="699">
       <c r="A699"/>
       <c r="B699"/>
+      <c r="C699"/>
+      <c r="D699"/>
     </row>
     <row r="700">
       <c r="A700"/>
       <c r="B700"/>
+      <c r="C700"/>
+      <c r="D700"/>
     </row>
     <row r="701">
       <c r="A701"/>
       <c r="B701"/>
+      <c r="C701"/>
+      <c r="D701"/>
     </row>
     <row r="702">
       <c r="A702"/>
       <c r="B702"/>
+      <c r="C702"/>
+      <c r="D702"/>
     </row>
     <row r="703">
       <c r="A703"/>
       <c r="B703"/>
+      <c r="C703"/>
+      <c r="D703"/>
     </row>
     <row r="704">
       <c r="A704"/>
       <c r="B704"/>
+      <c r="C704"/>
+      <c r="D704"/>
     </row>
     <row r="705">
       <c r="A705"/>
       <c r="B705"/>
+      <c r="C705"/>
+      <c r="D705"/>
     </row>
     <row r="706">
       <c r="A706"/>
       <c r="B706"/>
+      <c r="C706"/>
+      <c r="D706"/>
     </row>
     <row r="707">
       <c r="A707"/>
       <c r="B707"/>
+      <c r="C707"/>
+      <c r="D707"/>
     </row>
     <row r="708">
       <c r="A708"/>
       <c r="B708"/>
+      <c r="C708"/>
+      <c r="D708"/>
     </row>
     <row r="709">
       <c r="A709"/>
       <c r="B709"/>
+      <c r="C709"/>
+      <c r="D709"/>
     </row>
     <row r="710">
       <c r="A710"/>
       <c r="B710"/>
+      <c r="C710"/>
+      <c r="D710"/>
     </row>
     <row r="711">
       <c r="A711"/>
       <c r="B711"/>
+      <c r="C711"/>
+      <c r="D711"/>
     </row>
     <row r="712">
       <c r="A712"/>
       <c r="B712"/>
+      <c r="C712"/>
+      <c r="D712"/>
     </row>
     <row r="713">
       <c r="A713"/>
       <c r="B713"/>
+      <c r="C713"/>
+      <c r="D713"/>
     </row>
     <row r="714">
       <c r="A714"/>
       <c r="B714"/>
+      <c r="C714"/>
+      <c r="D714"/>
     </row>
     <row r="715">
       <c r="A715"/>
       <c r="B715"/>
+      <c r="C715"/>
+      <c r="D715"/>
     </row>
     <row r="716">
       <c r="A716"/>
       <c r="B716"/>
+      <c r="C716"/>
+      <c r="D716"/>
     </row>
     <row r="717">
       <c r="A717"/>
       <c r="B717"/>
+      <c r="C717"/>
+      <c r="D717"/>
     </row>
     <row r="718">
       <c r="A718"/>
       <c r="B718"/>
+      <c r="C718"/>
+      <c r="D718"/>
     </row>
     <row r="719">
       <c r="A719"/>
       <c r="B719"/>
+      <c r="C719"/>
+      <c r="D719"/>
     </row>
     <row r="720">
       <c r="A720"/>
       <c r="B720"/>
+      <c r="C720"/>
+      <c r="D720"/>
     </row>
     <row r="721">
       <c r="A721"/>
       <c r="B721"/>
+      <c r="C721"/>
+      <c r="D721"/>
     </row>
     <row r="722">
       <c r="A722"/>
       <c r="B722"/>
+      <c r="C722"/>
+      <c r="D722"/>
     </row>
     <row r="723">
       <c r="A723"/>
       <c r="B723"/>
+      <c r="C723"/>
+      <c r="D723"/>
     </row>
     <row r="724">
       <c r="A724"/>
       <c r="B724"/>
+      <c r="C724"/>
+      <c r="D724"/>
     </row>
     <row r="725">
       <c r="A725"/>
       <c r="B725"/>
+      <c r="C725"/>
+      <c r="D725"/>
     </row>
     <row r="726">
       <c r="A726"/>
       <c r="B726"/>
+      <c r="C726"/>
+      <c r="D726"/>
     </row>
     <row r="727">
       <c r="A727"/>
       <c r="B727"/>
+      <c r="C727"/>
+      <c r="D727"/>
     </row>
     <row r="728">
       <c r="A728"/>
       <c r="B728"/>
+      <c r="C728"/>
+      <c r="D728"/>
     </row>
     <row r="729">
       <c r="A729"/>
       <c r="B729"/>
+      <c r="C729"/>
+      <c r="D729"/>
     </row>
     <row r="730">
       <c r="A730"/>
       <c r="B730"/>
+      <c r="C730"/>
+      <c r="D730"/>
     </row>
     <row r="731">
       <c r="A731"/>
       <c r="B731"/>
+      <c r="C731"/>
+      <c r="D731"/>
     </row>
     <row r="732">
       <c r="A732"/>
       <c r="B732"/>
+      <c r="C732"/>
+      <c r="D732"/>
     </row>
     <row r="733">
       <c r="A733"/>
       <c r="B733"/>
+      <c r="C733"/>
+      <c r="D733"/>
     </row>
     <row r="734">
       <c r="A734"/>
       <c r="B734"/>
+      <c r="C734"/>
+      <c r="D734"/>
     </row>
     <row r="735">
       <c r="A735"/>
       <c r="B735"/>
+      <c r="C735"/>
+      <c r="D735"/>
     </row>
     <row r="736">
       <c r="A736"/>
       <c r="B736"/>
+      <c r="C736"/>
+      <c r="D736"/>
     </row>
     <row r="737">
       <c r="A737"/>
       <c r="B737"/>
+      <c r="C737"/>
+      <c r="D737"/>
     </row>
     <row r="738">
       <c r="A738"/>
       <c r="B738"/>
+      <c r="C738"/>
+      <c r="D738"/>
     </row>
     <row r="739">
       <c r="A739"/>
       <c r="B739"/>
+      <c r="C739"/>
+      <c r="D739"/>
     </row>
     <row r="740">
       <c r="A740"/>
       <c r="B740"/>
+      <c r="C740"/>
+      <c r="D740"/>
     </row>
     <row r="741">
       <c r="A741"/>
       <c r="B741"/>
+      <c r="C741"/>
+      <c r="D741"/>
     </row>
     <row r="742">
       <c r="A742"/>
       <c r="B742"/>
+      <c r="C742"/>
+      <c r="D742"/>
     </row>
     <row r="743">
       <c r="A743"/>
       <c r="B743"/>
+      <c r="C743"/>
+      <c r="D743"/>
     </row>
     <row r="744">
       <c r="A744"/>
       <c r="B744"/>
+      <c r="C744"/>
+      <c r="D744"/>
     </row>
     <row r="745">
       <c r="A745"/>
       <c r="B745"/>
+      <c r="C745"/>
+      <c r="D745"/>
     </row>
     <row r="746">
       <c r="A746"/>
       <c r="B746"/>
+      <c r="C746"/>
+      <c r="D746"/>
     </row>
     <row r="747">
       <c r="A747"/>
       <c r="B747"/>
+      <c r="C747"/>
+      <c r="D747"/>
     </row>
     <row r="748">
       <c r="A748"/>
       <c r="B748"/>
+      <c r="C748"/>
+      <c r="D748"/>
     </row>
     <row r="749">
       <c r="A749"/>
       <c r="B749"/>
+      <c r="C749"/>
+      <c r="D749"/>
     </row>
     <row r="750">
       <c r="A750"/>
       <c r="B750"/>
+      <c r="C750"/>
+      <c r="D750"/>
     </row>
     <row r="751">
       <c r="A751"/>
       <c r="B751"/>
+      <c r="C751"/>
+      <c r="D751"/>
     </row>
     <row r="752">
       <c r="A752"/>
       <c r="B752"/>
+      <c r="C752"/>
+      <c r="D752"/>
     </row>
     <row r="753">
       <c r="A753"/>
       <c r="B753"/>
+      <c r="C753"/>
+      <c r="D753"/>
     </row>
     <row r="754">
       <c r="A754"/>
       <c r="B754"/>
+      <c r="C754"/>
+      <c r="D754"/>
     </row>
     <row r="755">
       <c r="A755"/>
       <c r="B755"/>
+      <c r="C755"/>
+      <c r="D755"/>
     </row>
     <row r="756">
       <c r="A756"/>
       <c r="B756"/>
+      <c r="C756"/>
+      <c r="D756"/>
     </row>
     <row r="757">
       <c r="A757"/>
       <c r="B757"/>
+      <c r="C757"/>
+      <c r="D757"/>
     </row>
     <row r="758">
       <c r="A758"/>
       <c r="B758"/>
+      <c r="C758"/>
+      <c r="D758"/>
     </row>
     <row r="759">
       <c r="A759"/>
       <c r="B759"/>
+      <c r="C759"/>
+      <c r="D759"/>
     </row>
     <row r="760">
       <c r="A760"/>
       <c r="B760"/>
+      <c r="C760"/>
+      <c r="D760"/>
     </row>
     <row r="761">
       <c r="A761"/>
       <c r="B761"/>
+      <c r="C761"/>
+      <c r="D761"/>
     </row>
     <row r="762">
       <c r="A762"/>
       <c r="B762"/>
+      <c r="C762"/>
+      <c r="D762"/>
     </row>
     <row r="763">
       <c r="A763"/>
       <c r="B763"/>
+      <c r="C763"/>
+      <c r="D763"/>
     </row>
     <row r="764">
       <c r="A764"/>
       <c r="B764"/>
+      <c r="C764"/>
+      <c r="D764"/>
     </row>
     <row r="765">
       <c r="A765"/>
       <c r="B765"/>
+      <c r="C765"/>
+      <c r="D765"/>
     </row>
     <row r="766">
       <c r="A766"/>
       <c r="B766"/>
+      <c r="C766"/>
+      <c r="D766"/>
     </row>
     <row r="767">
       <c r="A767"/>
       <c r="B767"/>
+      <c r="C767"/>
+      <c r="D767"/>
     </row>
     <row r="768">
       <c r="A768"/>
       <c r="B768"/>
+      <c r="C768"/>
+      <c r="D768"/>
     </row>
     <row r="769">
       <c r="A769"/>
       <c r="B769"/>
+      <c r="C769"/>
+      <c r="D769"/>
     </row>
     <row r="770">
       <c r="A770"/>
       <c r="B770"/>
+      <c r="C770"/>
+      <c r="D770"/>
     </row>
     <row r="771">
       <c r="A771"/>
       <c r="B771"/>
+      <c r="C771"/>
+      <c r="D771"/>
     </row>
     <row r="772">
       <c r="A772"/>
       <c r="B772"/>
+      <c r="C772"/>
+      <c r="D772"/>
     </row>
     <row r="773">
       <c r="A773"/>
       <c r="B773"/>
+      <c r="C773"/>
+      <c r="D773"/>
     </row>
     <row r="774">
       <c r="A774"/>
       <c r="B774"/>
+      <c r="C774"/>
+      <c r="D774"/>
     </row>
     <row r="775">
       <c r="A775"/>
       <c r="B775"/>
+      <c r="C775"/>
+      <c r="D775"/>
     </row>
     <row r="776">
       <c r="A776"/>
       <c r="B776"/>
+      <c r="C776"/>
+      <c r="D776"/>
     </row>
     <row r="777">
       <c r="A777"/>
       <c r="B777"/>
+      <c r="C777"/>
+      <c r="D777"/>
     </row>
     <row r="778">
       <c r="A778"/>
       <c r="B778"/>
+      <c r="C778"/>
+      <c r="D778"/>
     </row>
     <row r="779">
       <c r="A779"/>
       <c r="B779"/>
+      <c r="C779"/>
+      <c r="D779"/>
     </row>
     <row r="780">
       <c r="A780"/>
       <c r="B780"/>
+      <c r="C780"/>
+      <c r="D780"/>
     </row>
     <row r="781">
       <c r="A781"/>
       <c r="B781"/>
+      <c r="C781"/>
+      <c r="D781"/>
     </row>
     <row r="782">
       <c r="A782"/>
       <c r="B782"/>
+      <c r="C782"/>
+      <c r="D782"/>
     </row>
     <row r="783">
       <c r="A783"/>
       <c r="B783"/>
+      <c r="C783"/>
+      <c r="D783"/>
     </row>
     <row r="784">
       <c r="A784"/>
       <c r="B784"/>
+      <c r="C784"/>
+      <c r="D784"/>
     </row>
     <row r="785">
       <c r="A785"/>
       <c r="B785"/>
+      <c r="C785"/>
+      <c r="D785"/>
     </row>
     <row r="786">
       <c r="A786"/>
       <c r="B786"/>
+      <c r="C786"/>
+      <c r="D786"/>
     </row>
     <row r="787">
       <c r="A787"/>
       <c r="B787"/>
+      <c r="C787"/>
+      <c r="D787"/>
     </row>
     <row r="788">
       <c r="A788"/>
       <c r="B788"/>
+      <c r="C788"/>
+      <c r="D788"/>
     </row>
     <row r="789">
       <c r="A789"/>
       <c r="B789"/>
+      <c r="C789"/>
+      <c r="D789"/>
     </row>
     <row r="790">
       <c r="A790"/>
       <c r="B790"/>
+      <c r="C790"/>
+      <c r="D790"/>
     </row>
     <row r="791">
       <c r="A791"/>
       <c r="B791"/>
+      <c r="C791"/>
+      <c r="D791"/>
     </row>
     <row r="792">
       <c r="A792"/>
       <c r="B792"/>
+      <c r="C792"/>
+      <c r="D792"/>
     </row>
     <row r="793">
       <c r="A793"/>
       <c r="B793"/>
+      <c r="C793"/>
+      <c r="D793"/>
     </row>
     <row r="794">
       <c r="A794"/>
       <c r="B794"/>
+      <c r="C794"/>
+      <c r="D794"/>
     </row>
     <row r="795">
       <c r="A795"/>
       <c r="B795"/>
+      <c r="C795"/>
+      <c r="D795"/>
     </row>
     <row r="796">
       <c r="A796"/>
       <c r="B796"/>
+      <c r="C796"/>
+      <c r="D796"/>
     </row>
     <row r="797">
       <c r="A797"/>
       <c r="B797"/>
+      <c r="C797"/>
+      <c r="D797"/>
     </row>
     <row r="798">
       <c r="A798"/>
       <c r="B798"/>
+      <c r="C798"/>
+      <c r="D798"/>
     </row>
     <row r="799">
       <c r="A799"/>
       <c r="B799"/>
+      <c r="C799"/>
+      <c r="D799"/>
     </row>
     <row r="800">
       <c r="A800"/>
       <c r="B800"/>
+      <c r="C800"/>
+      <c r="D800"/>
     </row>
     <row r="801">
       <c r="A801"/>
       <c r="B801"/>
+      <c r="C801"/>
+      <c r="D801"/>
     </row>
     <row r="802">
       <c r="A802"/>
       <c r="B802"/>
+      <c r="C802"/>
+      <c r="D802"/>
     </row>
     <row r="803">
       <c r="A803"/>
       <c r="B803"/>
+      <c r="C803"/>
+      <c r="D803"/>
     </row>
     <row r="804">
       <c r="A804"/>
       <c r="B804"/>
+      <c r="C804"/>
+      <c r="D804"/>
     </row>
     <row r="805">
       <c r="A805"/>
       <c r="B805"/>
+      <c r="C805"/>
+      <c r="D805"/>
     </row>
     <row r="806">
       <c r="A806"/>
       <c r="B806"/>
+      <c r="C806"/>
+      <c r="D806"/>
     </row>
     <row r="807">
       <c r="A807"/>
       <c r="B807"/>
+      <c r="C807"/>
+      <c r="D807"/>
     </row>
     <row r="808">
       <c r="A808"/>
       <c r="B808"/>
+      <c r="C808"/>
+      <c r="D808"/>
     </row>
     <row r="809">
       <c r="A809"/>
       <c r="B809"/>
+      <c r="C809"/>
+      <c r="D809"/>
     </row>
     <row r="810">
       <c r="A810"/>
       <c r="B810"/>
+      <c r="C810"/>
+      <c r="D810"/>
     </row>
     <row r="811">
       <c r="A811"/>
       <c r="B811"/>
+      <c r="C811"/>
+      <c r="D811"/>
     </row>
     <row r="812">
       <c r="A812"/>
       <c r="B812"/>
+      <c r="C812"/>
+      <c r="D812"/>
     </row>
     <row r="813">
       <c r="A813"/>
       <c r="B813"/>
+      <c r="C813"/>
+      <c r="D813"/>
     </row>
     <row r="814">
       <c r="A814"/>
       <c r="B814"/>
+      <c r="C814"/>
+      <c r="D814"/>
     </row>
     <row r="815">
       <c r="A815"/>
       <c r="B815"/>
+      <c r="C815"/>
+      <c r="D815"/>
     </row>
     <row r="816">
       <c r="A816"/>
       <c r="B816"/>
+      <c r="C816"/>
+      <c r="D816"/>
     </row>
     <row r="817">
       <c r="A817"/>
       <c r="B817"/>
+      <c r="C817"/>
+      <c r="D817"/>
     </row>
     <row r="818">
       <c r="A818"/>
       <c r="B818"/>
+      <c r="C818"/>
+      <c r="D818"/>
     </row>
     <row r="819">
       <c r="A819"/>
       <c r="B819"/>
+      <c r="C819"/>
+      <c r="D819"/>
     </row>
     <row r="820">
       <c r="A820"/>
       <c r="B820"/>
+      <c r="C820"/>
+      <c r="D820"/>
     </row>
     <row r="821">
       <c r="A821"/>
       <c r="B821"/>
+      <c r="C821"/>
+      <c r="D821"/>
     </row>
     <row r="822">
       <c r="A822"/>
       <c r="B822"/>
+      <c r="C822"/>
+      <c r="D822"/>
     </row>
     <row r="823">
       <c r="A823"/>
       <c r="B823"/>
+      <c r="C823"/>
+      <c r="D823"/>
     </row>
     <row r="824">
       <c r="A824"/>
       <c r="B824"/>
+      <c r="C824"/>
+      <c r="D824"/>
     </row>
     <row r="825">
       <c r="A825"/>
       <c r="B825"/>
+      <c r="C825"/>
+      <c r="D825"/>
     </row>
     <row r="826">
       <c r="A826"/>
       <c r="B826"/>
+      <c r="C826"/>
+      <c r="D826"/>
     </row>
     <row r="827">
       <c r="A827"/>
       <c r="B827"/>
+      <c r="C827"/>
+      <c r="D827"/>
     </row>
     <row r="828">
       <c r="A828"/>
       <c r="B828"/>
+      <c r="C828"/>
+      <c r="D828"/>
     </row>
     <row r="829">
       <c r="A829"/>
       <c r="B829"/>
+      <c r="C829"/>
+      <c r="D829"/>
     </row>
     <row r="830">
       <c r="A830"/>
       <c r="B830"/>
+      <c r="C830"/>
+      <c r="D830"/>
     </row>
     <row r="831">
       <c r="A831"/>
       <c r="B831"/>
+      <c r="C831"/>
+      <c r="D831"/>
     </row>
     <row r="832">
       <c r="A832"/>
       <c r="B832"/>
+      <c r="C832"/>
+      <c r="D832"/>
     </row>
     <row r="833">
       <c r="A833"/>
       <c r="B833"/>
+      <c r="C833"/>
+      <c r="D833"/>
     </row>
     <row r="834">
       <c r="A834"/>
       <c r="B834"/>
+      <c r="C834"/>
+      <c r="D834"/>
     </row>
     <row r="835">
       <c r="A835"/>
       <c r="B835"/>
+      <c r="C835"/>
+      <c r="D835"/>
     </row>
     <row r="836">
       <c r="A836"/>
       <c r="B836"/>
+      <c r="C836"/>
+      <c r="D836"/>
     </row>
     <row r="837">
       <c r="A837"/>
       <c r="B837"/>
+      <c r="C837"/>
+      <c r="D837"/>
     </row>
     <row r="838">
       <c r="A838"/>
       <c r="B838"/>
+      <c r="C838"/>
+      <c r="D838"/>
     </row>
     <row r="839">
       <c r="A839"/>
       <c r="B839"/>
+      <c r="C839"/>
+      <c r="D839"/>
     </row>
     <row r="840">
       <c r="A840"/>
       <c r="B840"/>
+      <c r="C840"/>
+      <c r="D840"/>
     </row>
     <row r="841">
       <c r="A841"/>
       <c r="B841"/>
+      <c r="C841"/>
+      <c r="D841"/>
     </row>
     <row r="842">
       <c r="A842"/>
       <c r="B842"/>
+      <c r="C842"/>
+      <c r="D842"/>
     </row>
     <row r="843">
       <c r="A843"/>
       <c r="B843"/>
+      <c r="C843"/>
+      <c r="D843"/>
     </row>
     <row r="844">
       <c r="A844"/>
       <c r="B844"/>
+      <c r="C844"/>
+      <c r="D844"/>
     </row>
     <row r="845">
       <c r="A845"/>
       <c r="B845"/>
+      <c r="C845"/>
+      <c r="D845"/>
     </row>
     <row r="846">
       <c r="A846"/>
       <c r="B846"/>
+      <c r="C846"/>
+      <c r="D846"/>
     </row>
     <row r="847">
       <c r="A847"/>
       <c r="B847"/>
+      <c r="C847"/>
+      <c r="D847"/>
     </row>
     <row r="848">
       <c r="A848"/>
       <c r="B848"/>
+      <c r="C848"/>
+      <c r="D848"/>
     </row>
     <row r="849">
       <c r="A849"/>
       <c r="B849"/>
+      <c r="C849"/>
+      <c r="D849"/>
     </row>
     <row r="850">
       <c r="A850"/>
       <c r="B850"/>
+      <c r="C850"/>
+      <c r="D850"/>
     </row>
     <row r="851">
       <c r="A851"/>
       <c r="B851"/>
+      <c r="C851"/>
+      <c r="D851"/>
     </row>
     <row r="852">
       <c r="A852"/>
       <c r="B852"/>
+      <c r="C852"/>
+      <c r="D852"/>
     </row>
     <row r="853">
       <c r="A853"/>
       <c r="B853"/>
+      <c r="C853"/>
+      <c r="D853"/>
     </row>
     <row r="854">
       <c r="A854"/>
       <c r="B854"/>
+      <c r="C854"/>
+      <c r="D854"/>
     </row>
     <row r="855">
       <c r="A855"/>
       <c r="B855"/>
+      <c r="C855"/>
+      <c r="D855"/>
     </row>
     <row r="856">
       <c r="A856"/>
       <c r="B856"/>
+      <c r="C856"/>
+      <c r="D856"/>
     </row>
     <row r="857">
       <c r="A857"/>
       <c r="B857"/>
+      <c r="C857"/>
+      <c r="D857"/>
     </row>
     <row r="858">
       <c r="A858"/>
       <c r="B858"/>
+      <c r="C858"/>
+      <c r="D858"/>
     </row>
     <row r="859">
       <c r="A859"/>
       <c r="B859"/>
+      <c r="C859"/>
+      <c r="D859"/>
     </row>
     <row r="860">
       <c r="A860"/>
       <c r="B860"/>
+      <c r="C860"/>
+      <c r="D860"/>
     </row>
     <row r="861">
       <c r="A861"/>
       <c r="B861"/>
+      <c r="C861"/>
+      <c r="D861"/>
     </row>
     <row r="862">
       <c r="A862"/>
       <c r="B862"/>
+      <c r="C862"/>
+      <c r="D862"/>
     </row>
     <row r="863">
       <c r="A863"/>
       <c r="B863"/>
+      <c r="C863"/>
+      <c r="D863"/>
     </row>
     <row r="864">
       <c r="A864"/>
       <c r="B864"/>
+      <c r="C864"/>
+      <c r="D864"/>
     </row>
     <row r="865">
       <c r="A865"/>
       <c r="B865"/>
+      <c r="C865"/>
+      <c r="D865"/>
     </row>
     <row r="866">
       <c r="A866"/>
       <c r="B866"/>
+      <c r="C866"/>
+      <c r="D866"/>
     </row>
     <row r="867">
       <c r="A867"/>
       <c r="B867"/>
+      <c r="C867"/>
+      <c r="D867"/>
     </row>
     <row r="868">
       <c r="A868"/>
       <c r="B868"/>
+      <c r="C868"/>
+      <c r="D868"/>
     </row>
     <row r="869">
       <c r="A869"/>
       <c r="B869"/>
+      <c r="C869"/>
+      <c r="D869"/>
     </row>
     <row r="870">
       <c r="A870"/>
       <c r="B870"/>
+      <c r="C870"/>
+      <c r="D870"/>
     </row>
     <row r="871">
       <c r="A871"/>
       <c r="B871"/>
+      <c r="C871"/>
+      <c r="D871"/>
     </row>
     <row r="872">
       <c r="A872"/>
       <c r="B872"/>
+      <c r="C872"/>
+      <c r="D872"/>
     </row>
     <row r="873">
       <c r="A873"/>
       <c r="B873"/>
+      <c r="C873"/>
+      <c r="D873"/>
     </row>
     <row r="874">
       <c r="A874"/>
       <c r="B874"/>
+      <c r="C874"/>
+      <c r="D874"/>
     </row>
     <row r="875">
       <c r="A875"/>
       <c r="B875"/>
+      <c r="C875"/>
+      <c r="D875"/>
     </row>
     <row r="876">
       <c r="A876"/>
       <c r="B876"/>
+      <c r="C876"/>
+      <c r="D876"/>
     </row>
     <row r="877">
       <c r="A877"/>
       <c r="B877"/>
+      <c r="C877"/>
+      <c r="D877"/>
     </row>
     <row r="878">
       <c r="A878"/>
       <c r="B878"/>
+      <c r="C878"/>
+      <c r="D878"/>
     </row>
     <row r="879">
       <c r="A879"/>
       <c r="B879"/>
+      <c r="C879"/>
+      <c r="D879"/>
     </row>
     <row r="880">
       <c r="A880"/>
       <c r="B880"/>
+      <c r="C880"/>
+      <c r="D880"/>
     </row>
     <row r="881">
       <c r="A881"/>
       <c r="B881"/>
+      <c r="C881"/>
+      <c r="D881"/>
     </row>
     <row r="882">
       <c r="A882"/>
       <c r="B882"/>
+      <c r="C882"/>
+      <c r="D882"/>
     </row>
     <row r="883">
       <c r="A883"/>
       <c r="B883"/>
+      <c r="C883"/>
+      <c r="D883"/>
     </row>
     <row r="884">
       <c r="A884"/>
       <c r="B884"/>
+      <c r="C884"/>
+      <c r="D884"/>
     </row>
     <row r="885">
       <c r="A885"/>
       <c r="B885"/>
+      <c r="C885"/>
+      <c r="D885"/>
     </row>
     <row r="886">
       <c r="A886"/>
       <c r="B886"/>
+      <c r="C886"/>
+      <c r="D886"/>
     </row>
     <row r="887">
       <c r="A887"/>
       <c r="B887"/>
+      <c r="C887"/>
+      <c r="D887"/>
     </row>
     <row r="888">
       <c r="A888"/>
       <c r="B888"/>
+      <c r="C888"/>
+      <c r="D888"/>
     </row>
     <row r="889">
       <c r="A889"/>
       <c r="B889"/>
+      <c r="C889"/>
+      <c r="D889"/>
     </row>
     <row r="890">
       <c r="A890"/>
       <c r="B890"/>
+      <c r="C890"/>
+      <c r="D890"/>
     </row>
     <row r="891">
       <c r="A891"/>
       <c r="B891"/>
+      <c r="C891"/>
+      <c r="D891"/>
     </row>
     <row r="892">
       <c r="A892"/>
       <c r="B892"/>
+      <c r="C892"/>
+      <c r="D892"/>
     </row>
     <row r="893">
       <c r="A893"/>
       <c r="B893"/>
+      <c r="C893"/>
+      <c r="D893"/>
     </row>
     <row r="894">
       <c r="A894"/>
       <c r="B894"/>
+      <c r="C894"/>
+      <c r="D894"/>
     </row>
     <row r="895">
       <c r="A895"/>
       <c r="B895"/>
+      <c r="C895"/>
+      <c r="D895"/>
     </row>
     <row r="896">
       <c r="A896"/>
       <c r="B896"/>
+      <c r="C896"/>
+      <c r="D896"/>
     </row>
     <row r="897">
       <c r="A897"/>
       <c r="B897"/>
+      <c r="C897"/>
+      <c r="D897"/>
     </row>
     <row r="898">
       <c r="A898"/>
       <c r="B898"/>
+      <c r="C898"/>
+      <c r="D898"/>
     </row>
     <row r="899">
       <c r="A899"/>
       <c r="B899"/>
+      <c r="C899"/>
+      <c r="D899"/>
     </row>
     <row r="900">
       <c r="A900"/>
       <c r="B900"/>
+      <c r="C900"/>
+      <c r="D900"/>
     </row>
     <row r="901">
       <c r="A901"/>
       <c r="B901"/>
+      <c r="C901"/>
+      <c r="D901"/>
     </row>
     <row r="902">
       <c r="A902"/>
       <c r="B902"/>
+      <c r="C902"/>
+      <c r="D902"/>
     </row>
     <row r="903">
       <c r="A903"/>
       <c r="B903"/>
+      <c r="C903"/>
+      <c r="D903"/>
     </row>
     <row r="904">
       <c r="A904"/>
       <c r="B904"/>
+      <c r="C904"/>
+      <c r="D904"/>
     </row>
     <row r="905">
       <c r="A905"/>
       <c r="B905"/>
+      <c r="C905"/>
+      <c r="D905"/>
     </row>
     <row r="906">
       <c r="A906"/>
       <c r="B906"/>
+      <c r="C906"/>
+      <c r="D906"/>
     </row>
     <row r="907">
       <c r="A907"/>
       <c r="B907"/>
+      <c r="C907"/>
+      <c r="D907"/>
     </row>
     <row r="908">
       <c r="A908"/>
       <c r="B908"/>
+      <c r="C908"/>
+      <c r="D908"/>
     </row>
     <row r="909">
       <c r="A909"/>
       <c r="B909"/>
+      <c r="C909"/>
+      <c r="D909"/>
     </row>
     <row r="910">
       <c r="A910"/>
       <c r="B910"/>
+      <c r="C910"/>
+      <c r="D910"/>
     </row>
     <row r="911">
       <c r="A911"/>
       <c r="B911"/>
+      <c r="C911"/>
+      <c r="D911"/>
     </row>
     <row r="912">
       <c r="A912"/>
       <c r="B912"/>
+      <c r="C912"/>
+      <c r="D912"/>
     </row>
     <row r="913">
       <c r="A913"/>
       <c r="B913"/>
+      <c r="C913"/>
+      <c r="D913"/>
     </row>
     <row r="914">
       <c r="A914"/>
       <c r="B914"/>
+      <c r="C914"/>
+      <c r="D914"/>
     </row>
     <row r="915">
       <c r="A915"/>
       <c r="B915"/>
+      <c r="C915"/>
+      <c r="D915"/>
     </row>
     <row r="916">
       <c r="A916"/>
       <c r="B916"/>
+      <c r="C916"/>
+      <c r="D916"/>
     </row>
     <row r="917">
       <c r="A917"/>
       <c r="B917"/>
+      <c r="C917"/>
+      <c r="D917"/>
     </row>
     <row r="918">
       <c r="A918"/>
       <c r="B918"/>
+      <c r="C918"/>
+      <c r="D918"/>
     </row>
     <row r="919">
       <c r="A919"/>
       <c r="B919"/>
+      <c r="C919"/>
+      <c r="D919"/>
     </row>
     <row r="920">
       <c r="A920"/>
       <c r="B920"/>
+      <c r="C920"/>
+      <c r="D920"/>
     </row>
     <row r="921">
       <c r="A921"/>
       <c r="B921"/>
+      <c r="C921"/>
+      <c r="D921"/>
     </row>
     <row r="922">
       <c r="A922"/>
       <c r="B922"/>
+      <c r="C922"/>
+      <c r="D922"/>
     </row>
     <row r="923">
       <c r="A923"/>
       <c r="B923"/>
+      <c r="C923"/>
+      <c r="D923"/>
     </row>
     <row r="924">
       <c r="A924"/>
       <c r="B924"/>
+      <c r="C924"/>
+      <c r="D924"/>
     </row>
     <row r="925">
       <c r="A925"/>
       <c r="B925"/>
+      <c r="C925"/>
+      <c r="D925"/>
     </row>
     <row r="926">
       <c r="A926"/>
       <c r="B926"/>
+      <c r="C926"/>
+      <c r="D926"/>
     </row>
     <row r="927">
       <c r="A927"/>
       <c r="B927"/>
+      <c r="C927"/>
+      <c r="D927"/>
     </row>
     <row r="928">
       <c r="A928"/>
       <c r="B928"/>
+      <c r="C928"/>
+      <c r="D928"/>
     </row>
     <row r="929">
       <c r="A929"/>
       <c r="B929"/>
+      <c r="C929"/>
+      <c r="D929"/>
     </row>
     <row r="930">
       <c r="A930"/>
       <c r="B930"/>
+      <c r="C930"/>
+      <c r="D930"/>
     </row>
     <row r="931">
       <c r="A931"/>
       <c r="B931"/>
+      <c r="C931"/>
+      <c r="D931"/>
     </row>
     <row r="932">
       <c r="A932"/>
       <c r="B932"/>
+      <c r="C932"/>
+      <c r="D932"/>
     </row>
     <row r="933">
       <c r="A933"/>
       <c r="B933"/>
+      <c r="C933"/>
+      <c r="D933"/>
     </row>
     <row r="934">
       <c r="A934"/>
       <c r="B934"/>
+      <c r="C934"/>
+      <c r="D934"/>
     </row>
     <row r="935">
       <c r="A935"/>
       <c r="B935"/>
+      <c r="C935"/>
+      <c r="D935"/>
     </row>
     <row r="936">
       <c r="A936"/>
       <c r="B936"/>
+      <c r="C936"/>
+      <c r="D936"/>
     </row>
     <row r="937">
       <c r="A937"/>
       <c r="B937"/>
+      <c r="C937"/>
+      <c r="D937"/>
     </row>
     <row r="938">
       <c r="A938"/>
       <c r="B938"/>
+      <c r="C938"/>
+      <c r="D938"/>
     </row>
     <row r="939">
       <c r="A939"/>
       <c r="B939"/>
+      <c r="C939"/>
+      <c r="D939"/>
     </row>
     <row r="940">
       <c r="A940"/>
       <c r="B940"/>
+      <c r="C940"/>
+      <c r="D940"/>
     </row>
     <row r="941">
       <c r="A941"/>
       <c r="B941"/>
+      <c r="C941"/>
+      <c r="D941"/>
     </row>
     <row r="942">
       <c r="A942"/>
       <c r="B942"/>
+      <c r="C942"/>
+      <c r="D942"/>
     </row>
     <row r="943">
       <c r="A943"/>
       <c r="B943"/>
+      <c r="C943"/>
+      <c r="D943"/>
     </row>
     <row r="944">
       <c r="A944"/>
       <c r="B944"/>
+      <c r="C944"/>
+      <c r="D944"/>
     </row>
     <row r="945">
       <c r="A945"/>
       <c r="B945"/>
+      <c r="C945"/>
+      <c r="D945"/>
     </row>
     <row r="946">
       <c r="A946"/>
       <c r="B946"/>
+      <c r="C946"/>
+      <c r="D946"/>
     </row>
     <row r="947">
       <c r="A947"/>
       <c r="B947"/>
+      <c r="C947"/>
+      <c r="D947"/>
     </row>
     <row r="948">
       <c r="A948"/>
       <c r="B948"/>
+      <c r="C948"/>
+      <c r="D948"/>
     </row>
     <row r="949">
       <c r="A949"/>
       <c r="B949"/>
+      <c r="C949"/>
+      <c r="D949"/>
     </row>
     <row r="950">
       <c r="A950"/>
       <c r="B950"/>
+      <c r="C950"/>
+      <c r="D950"/>
     </row>
     <row r="951">
       <c r="A951"/>
       <c r="B951"/>
+      <c r="C951"/>
+      <c r="D951"/>
     </row>
     <row r="952">
       <c r="A952"/>
       <c r="B952"/>
+      <c r="C952"/>
+      <c r="D952"/>
     </row>
     <row r="953">
       <c r="A953"/>
       <c r="B953"/>
+      <c r="C953"/>
+      <c r="D953"/>
     </row>
     <row r="954">
       <c r="A954"/>
       <c r="B954"/>
+      <c r="C954"/>
+      <c r="D954"/>
     </row>
     <row r="955">
       <c r="A955"/>
       <c r="B955"/>
+      <c r="C955"/>
+      <c r="D955"/>
     </row>
     <row r="956">
       <c r="A956"/>
       <c r="B956"/>
+      <c r="C956"/>
+      <c r="D956"/>
     </row>
     <row r="957">
       <c r="A957"/>
       <c r="B957"/>
+      <c r="C957"/>
+      <c r="D957"/>
     </row>
     <row r="958">
       <c r="A958"/>
       <c r="B958"/>
+      <c r="C958"/>
+      <c r="D958"/>
     </row>
     <row r="959">
       <c r="A959"/>
       <c r="B959"/>
+      <c r="C959"/>
+      <c r="D959"/>
     </row>
     <row r="960">
       <c r="A960"/>
       <c r="B960"/>
+      <c r="C960"/>
+      <c r="D960"/>
     </row>
     <row r="961">
       <c r="A961"/>
       <c r="B961"/>
+      <c r="C961"/>
+      <c r="D961"/>
     </row>
     <row r="962">
       <c r="A962"/>
       <c r="B962"/>
+      <c r="C962"/>
+      <c r="D962"/>
     </row>
     <row r="963">
       <c r="A963"/>
       <c r="B963"/>
+      <c r="C963"/>
+      <c r="D963"/>
     </row>
     <row r="964">
       <c r="A964"/>
       <c r="B964"/>
+      <c r="C964"/>
+      <c r="D964"/>
     </row>
     <row r="965">
       <c r="A965"/>
       <c r="B965"/>
+      <c r="C965"/>
+      <c r="D965"/>
     </row>
     <row r="966">
       <c r="A966"/>
       <c r="B966"/>
+      <c r="C966"/>
+      <c r="D966"/>
     </row>
     <row r="967">
       <c r="A967"/>
       <c r="B967"/>
+      <c r="C967"/>
+      <c r="D967"/>
     </row>
     <row r="968">
       <c r="A968"/>
       <c r="B968"/>
+      <c r="C968"/>
+      <c r="D968"/>
     </row>
     <row r="969">
       <c r="A969"/>
       <c r="B969"/>
+      <c r="C969"/>
+      <c r="D969"/>
     </row>
     <row r="970">
       <c r="A970"/>
       <c r="B970"/>
+      <c r="C970"/>
+      <c r="D970"/>
     </row>
     <row r="971">
       <c r="A971"/>
       <c r="B971"/>
+      <c r="C971"/>
+      <c r="D971"/>
     </row>
     <row r="972">
       <c r="A972"/>
       <c r="B972"/>
+      <c r="C972"/>
+      <c r="D972"/>
     </row>
     <row r="973">
       <c r="A973"/>
       <c r="B973"/>
+      <c r="C973"/>
+      <c r="D973"/>
     </row>
     <row r="974">
       <c r="A974"/>
       <c r="B974"/>
+      <c r="C974"/>
+      <c r="D974"/>
     </row>
     <row r="975">
       <c r="A975"/>
       <c r="B975"/>
+      <c r="C975"/>
+      <c r="D975"/>
     </row>
     <row r="976">
       <c r="A976"/>
       <c r="B976"/>
+      <c r="C976"/>
+      <c r="D976"/>
     </row>
     <row r="977">
       <c r="A977"/>
       <c r="B977"/>
+      <c r="C977"/>
+      <c r="D977"/>
     </row>
     <row r="978">
       <c r="A978"/>
       <c r="B978"/>
+      <c r="C978"/>
+      <c r="D978"/>
     </row>
     <row r="979">
       <c r="A979"/>
       <c r="B979"/>
+      <c r="C979"/>
+      <c r="D979"/>
     </row>
     <row r="980">
       <c r="A980"/>
       <c r="B980"/>
+      <c r="C980"/>
+      <c r="D980"/>
     </row>
     <row r="981">
       <c r="A981"/>
       <c r="B981"/>
+      <c r="C981"/>
+      <c r="D981"/>
     </row>
     <row r="982">
       <c r="A982"/>
       <c r="B982"/>
+      <c r="C982"/>
+      <c r="D982"/>
     </row>
     <row r="983">
       <c r="A983"/>
       <c r="B983"/>
-    </row>
-    <row r="984">
-      <c r="A984"/>
-      <c r="B984"/>
-    </row>
-    <row r="985">
-      <c r="A985"/>
-      <c r="B985"/>
-    </row>
-    <row r="986">
-      <c r="A986"/>
-      <c r="B986"/>
-    </row>
-    <row r="987">
-      <c r="A987"/>
-      <c r="B987"/>
-    </row>
-    <row r="988">
-      <c r="A988"/>
-      <c r="B988"/>
-    </row>
-    <row r="989">
-      <c r="A989"/>
-      <c r="B989"/>
-    </row>
-    <row r="990">
-      <c r="A990"/>
-      <c r="B990"/>
-    </row>
-    <row r="991">
-      <c r="A991"/>
-      <c r="B991"/>
-    </row>
-    <row r="992">
-      <c r="A992"/>
-      <c r="B992"/>
-    </row>
-    <row r="993">
-      <c r="A993"/>
-      <c r="B993"/>
-    </row>
-    <row r="994">
-      <c r="A994"/>
-      <c r="B994"/>
-    </row>
-    <row r="995">
-      <c r="A995"/>
-      <c r="B995"/>
-    </row>
-    <row r="996">
-      <c r="A996"/>
-      <c r="B996"/>
-    </row>
-    <row r="997">
-      <c r="A997"/>
-      <c r="B997"/>
-    </row>
-    <row r="998">
-      <c r="A998"/>
-      <c r="B998"/>
-    </row>
-    <row r="999">
-      <c r="A999"/>
-      <c r="B999"/>
-    </row>
-    <row r="1000">
-      <c r="A1000"/>
-      <c r="B1000"/>
+      <c r="C983"/>
+      <c r="D983"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
